--- a/LectureNotes/6.1.SSHPA(top affiliation)/Data/data.xlsx
+++ b/LectureNotes/6.1.SSHPA(top affiliation)/Data/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="345" windowWidth="26595" windowHeight="10275" activeTab="4"/>
+    <workbookView xWindow="360" yWindow="345" windowWidth="26595" windowHeight="10275" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="By Year" sheetId="3" r:id="rId3"/>
     <sheet name="Age" sheetId="4" r:id="rId4"/>
     <sheet name="New Authors" sheetId="5" r:id="rId5"/>
+    <sheet name="Leaders" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="417">
   <si>
     <t>National Economics University Hanoi</t>
   </si>
@@ -1266,6 +1267,9 @@
   </si>
   <si>
     <t>sexid</t>
+  </si>
+  <si>
+    <t>(VASS) Vietnam Academy of Social Sciences</t>
   </si>
 </sst>
 </file>
@@ -16606,10 +16610,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J49"/>
+  <dimension ref="B1:J55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="B3" sqref="B3:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16635,20 +16639,20 @@
       </c>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2">
-        <v>2008</v>
-      </c>
-      <c r="C2">
-        <v>30</v>
-      </c>
-      <c r="D2">
-        <v>25</v>
+      <c r="B2" t="s">
+        <v>395</v>
+      </c>
+      <c r="C2" t="s">
+        <v>393</v>
+      </c>
+      <c r="D2" t="s">
+        <v>394</v>
       </c>
       <c r="G2">
         <v>2008</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>400</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -16659,19 +16663,19 @@
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C3">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="G3">
         <v>2009</v>
       </c>
       <c r="H3" t="s">
-        <v>0</v>
+        <v>399</v>
       </c>
       <c r="I3">
         <v>6</v>
@@ -16682,19 +16686,19 @@
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="C4">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D4">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G4">
         <v>2009</v>
       </c>
       <c r="H4" t="s">
-        <v>5</v>
+        <v>402</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -16705,19 +16709,19 @@
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="C5">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D5">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="G5">
         <v>2010</v>
       </c>
       <c r="H5" t="s">
-        <v>0</v>
+        <v>399</v>
       </c>
       <c r="I5">
         <v>3</v>
@@ -16728,19 +16732,19 @@
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="C6">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D6">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="G6">
         <v>2010</v>
       </c>
       <c r="H6" t="s">
-        <v>32</v>
+        <v>409</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -16751,19 +16755,19 @@
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C7">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="D7">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="G7">
         <v>2010</v>
       </c>
       <c r="H7" t="s">
-        <v>5</v>
+        <v>402</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -16774,19 +16778,19 @@
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C8">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D8">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="G8">
         <v>2010</v>
       </c>
       <c r="H8" t="s">
-        <v>8</v>
+        <v>405</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -16797,19 +16801,19 @@
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C9">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="D9">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="G9">
         <v>2011</v>
       </c>
       <c r="H9" t="s">
-        <v>0</v>
+        <v>399</v>
       </c>
       <c r="I9">
         <v>3</v>
@@ -16820,19 +16824,19 @@
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C10">
-        <v>129</v>
+        <v>92</v>
       </c>
       <c r="D10">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="G10">
         <v>2011</v>
       </c>
       <c r="H10" t="s">
-        <v>16</v>
+        <v>400</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -16843,19 +16847,19 @@
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C11">
-        <v>173</v>
+        <v>129</v>
       </c>
       <c r="D11">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="G11">
         <v>2011</v>
       </c>
       <c r="H11" t="s">
-        <v>2</v>
+        <v>406</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -16866,19 +16870,19 @@
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C12">
-        <v>211</v>
+        <v>173</v>
       </c>
       <c r="D12">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="G12">
         <v>2011</v>
       </c>
       <c r="H12" t="s">
-        <v>32</v>
+        <v>409</v>
       </c>
       <c r="I12">
         <v>2</v>
@@ -16889,19 +16893,19 @@
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C13">
-        <v>399</v>
+        <v>211</v>
       </c>
       <c r="D13">
-        <v>259</v>
+        <v>155</v>
       </c>
       <c r="G13">
         <v>2011</v>
       </c>
       <c r="H13" t="s">
-        <v>8</v>
+        <v>405</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -16911,11 +16915,20 @@
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>2019</v>
+      </c>
+      <c r="C14">
+        <v>399</v>
+      </c>
+      <c r="D14">
+        <v>259</v>
+      </c>
       <c r="G14">
         <v>2012</v>
       </c>
       <c r="H14" t="s">
-        <v>0</v>
+        <v>399</v>
       </c>
       <c r="I14">
         <v>2</v>
@@ -16929,7 +16942,7 @@
         <v>2012</v>
       </c>
       <c r="H15" t="s">
-        <v>2</v>
+        <v>406</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -16943,7 +16956,7 @@
         <v>2012</v>
       </c>
       <c r="H16" t="s">
-        <v>5</v>
+        <v>402</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -16957,7 +16970,7 @@
         <v>2013</v>
       </c>
       <c r="H17" t="s">
-        <v>0</v>
+        <v>399</v>
       </c>
       <c r="I17">
         <v>4</v>
@@ -16971,7 +16984,7 @@
         <v>2013</v>
       </c>
       <c r="H18" t="s">
-        <v>16</v>
+        <v>416</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -16985,13 +16998,13 @@
         <v>2013</v>
       </c>
       <c r="H19" t="s">
-        <v>2</v>
+        <v>400</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J19">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="7:10" x14ac:dyDescent="0.25">
@@ -16999,13 +17012,13 @@
         <v>2013</v>
       </c>
       <c r="H20" t="s">
-        <v>5</v>
+        <v>406</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="7:10" x14ac:dyDescent="0.25">
@@ -17013,7 +17026,7 @@
         <v>2013</v>
       </c>
       <c r="H21" t="s">
-        <v>8</v>
+        <v>402</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -17024,16 +17037,16 @@
     </row>
     <row r="22" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G22">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="H22" t="s">
-        <v>0</v>
+        <v>405</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="7:10" x14ac:dyDescent="0.25">
@@ -17041,13 +17054,13 @@
         <v>2014</v>
       </c>
       <c r="H23" t="s">
-        <v>16</v>
+        <v>399</v>
       </c>
       <c r="I23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J23">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="7:10" x14ac:dyDescent="0.25">
@@ -17055,13 +17068,13 @@
         <v>2014</v>
       </c>
       <c r="H24" t="s">
-        <v>2</v>
+        <v>416</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J24">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="7:10" x14ac:dyDescent="0.25">
@@ -17069,10 +17082,10 @@
         <v>2014</v>
       </c>
       <c r="H25" t="s">
-        <v>5</v>
+        <v>400</v>
       </c>
       <c r="I25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J25">
         <v>2</v>
@@ -17083,7 +17096,7 @@
         <v>2014</v>
       </c>
       <c r="H26" t="s">
-        <v>20</v>
+        <v>406</v>
       </c>
       <c r="I26">
         <v>1</v>
@@ -17094,30 +17107,30 @@
     </row>
     <row r="27" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G27">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="H27" t="s">
-        <v>0</v>
+        <v>402</v>
       </c>
       <c r="I27">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J27">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G28">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="H28" t="s">
-        <v>2</v>
+        <v>404</v>
       </c>
       <c r="I28">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J28">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="7:10" x14ac:dyDescent="0.25">
@@ -17125,55 +17138,55 @@
         <v>2015</v>
       </c>
       <c r="H29" t="s">
+        <v>399</v>
+      </c>
+      <c r="I29">
         <v>5</v>
       </c>
-      <c r="I29">
-        <v>1</v>
-      </c>
       <c r="J29">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G30">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="H30" t="s">
-        <v>0</v>
+        <v>416</v>
       </c>
       <c r="I30">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J30">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G31">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="H31" t="s">
-        <v>16</v>
+        <v>406</v>
       </c>
       <c r="I31">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J31">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G32">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="H32" t="s">
-        <v>2</v>
+        <v>402</v>
       </c>
       <c r="I32">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J32">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="7:10" x14ac:dyDescent="0.25">
@@ -17181,55 +17194,55 @@
         <v>2016</v>
       </c>
       <c r="H33" t="s">
-        <v>5</v>
+        <v>399</v>
       </c>
       <c r="I33">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J33">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G34">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="H34" t="s">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="I34">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J34">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G35">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="H35" t="s">
-        <v>16</v>
+        <v>406</v>
       </c>
       <c r="I35">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J35">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G36">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="H36" t="s">
-        <v>2</v>
+        <v>402</v>
       </c>
       <c r="I36">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J36">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="7:10" x14ac:dyDescent="0.25">
@@ -17237,13 +17250,13 @@
         <v>2017</v>
       </c>
       <c r="H37" t="s">
-        <v>32</v>
+        <v>399</v>
       </c>
       <c r="I37">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J37">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="7:10" x14ac:dyDescent="0.25">
@@ -17251,13 +17264,13 @@
         <v>2017</v>
       </c>
       <c r="H38" t="s">
-        <v>5</v>
+        <v>416</v>
       </c>
       <c r="I38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J38">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="7:10" x14ac:dyDescent="0.25">
@@ -17265,10 +17278,10 @@
         <v>2017</v>
       </c>
       <c r="H39" t="s">
-        <v>8</v>
+        <v>400</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J39">
         <v>2</v>
@@ -17279,52 +17292,52 @@
         <v>2017</v>
       </c>
       <c r="H40" t="s">
-        <v>20</v>
+        <v>406</v>
       </c>
       <c r="I40">
         <v>6</v>
       </c>
       <c r="J40">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G41">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="H41" t="s">
-        <v>0</v>
+        <v>409</v>
       </c>
       <c r="I41">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="J41">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G42">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="H42" t="s">
-        <v>2</v>
+        <v>402</v>
       </c>
       <c r="I42">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J42">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G43">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="H43" t="s">
-        <v>8</v>
+        <v>405</v>
       </c>
       <c r="I43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J43">
         <v>2</v>
@@ -17332,72 +17345,72 @@
     </row>
     <row r="44" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G44">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="H44" t="s">
-        <v>0</v>
+        <v>404</v>
       </c>
       <c r="I44">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="J44">
-        <v>30</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G45">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="H45" t="s">
-        <v>16</v>
+        <v>399</v>
       </c>
       <c r="I45">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J45">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G46">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="H46" t="s">
-        <v>2</v>
+        <v>416</v>
       </c>
       <c r="I46">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J46">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G47">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="H47" t="s">
-        <v>5</v>
+        <v>406</v>
       </c>
       <c r="I47">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J47">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G48">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="H48" t="s">
-        <v>8</v>
+        <v>405</v>
       </c>
       <c r="I48">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J48">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="7:10" x14ac:dyDescent="0.25">
@@ -17405,12 +17418,96 @@
         <v>2019</v>
       </c>
       <c r="H49" t="s">
-        <v>20</v>
+        <v>399</v>
       </c>
       <c r="I49">
+        <v>38</v>
+      </c>
+      <c r="J49">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G50">
+        <v>2019</v>
+      </c>
+      <c r="H50" t="s">
+        <v>416</v>
+      </c>
+      <c r="I50">
+        <v>2</v>
+      </c>
+      <c r="J50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G51">
+        <v>2019</v>
+      </c>
+      <c r="H51" t="s">
+        <v>400</v>
+      </c>
+      <c r="I51">
+        <v>4</v>
+      </c>
+      <c r="J51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G52">
+        <v>2019</v>
+      </c>
+      <c r="H52" t="s">
+        <v>406</v>
+      </c>
+      <c r="I52">
+        <v>6</v>
+      </c>
+      <c r="J52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G53">
+        <v>2019</v>
+      </c>
+      <c r="H53" t="s">
+        <v>402</v>
+      </c>
+      <c r="I53">
+        <v>11</v>
+      </c>
+      <c r="J53">
         <v>9</v>
       </c>
-      <c r="J49">
+    </row>
+    <row r="54" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G54">
+        <v>2019</v>
+      </c>
+      <c r="H54" t="s">
+        <v>405</v>
+      </c>
+      <c r="I54">
+        <v>6</v>
+      </c>
+      <c r="J54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G55">
+        <v>2019</v>
+      </c>
+      <c r="H55" t="s">
+        <v>404</v>
+      </c>
+      <c r="I55">
+        <v>9</v>
+      </c>
+      <c r="J55">
         <v>7</v>
       </c>
     </row>
@@ -17421,10 +17518,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E57"/>
+  <dimension ref="B1:E64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17465,21 +17562,21 @@
         <v>398</v>
       </c>
       <c r="C3" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C4" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -17493,7 +17590,7 @@
         <v>401</v>
       </c>
       <c r="C5" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -17504,16 +17601,16 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C6" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
@@ -17521,13 +17618,13 @@
         <v>403</v>
       </c>
       <c r="C7" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
@@ -17535,7 +17632,7 @@
         <v>403</v>
       </c>
       <c r="C8" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -17549,13 +17646,13 @@
         <v>403</v>
       </c>
       <c r="C9" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
@@ -17569,7 +17666,7 @@
         <v>2</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
@@ -17577,35 +17674,35 @@
         <v>403</v>
       </c>
       <c r="C11" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C12" t="s">
-        <v>402</v>
+        <v>416</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E12">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C13" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -17619,13 +17716,13 @@
         <v>407</v>
       </c>
       <c r="C14" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="D14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E14">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
@@ -17633,13 +17730,13 @@
         <v>407</v>
       </c>
       <c r="C15" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
@@ -17647,13 +17744,13 @@
         <v>407</v>
       </c>
       <c r="C16" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
@@ -17661,13 +17758,13 @@
         <v>407</v>
       </c>
       <c r="C17" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
@@ -17675,49 +17772,49 @@
         <v>407</v>
       </c>
       <c r="C18" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E18">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C19" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E19">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C20" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C21" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -17731,13 +17828,13 @@
         <v>408</v>
       </c>
       <c r="C22" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22">
         <v>6</v>
-      </c>
-      <c r="E22">
-        <v>22</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
@@ -17745,7 +17842,7 @@
         <v>408</v>
       </c>
       <c r="C23" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -17759,13 +17856,13 @@
         <v>408</v>
       </c>
       <c r="C24" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E24">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
@@ -17773,13 +17870,13 @@
         <v>408</v>
       </c>
       <c r="C25" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="D25">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E25">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
@@ -17787,13 +17884,13 @@
         <v>408</v>
       </c>
       <c r="C26" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
@@ -17801,13 +17898,13 @@
         <v>408</v>
       </c>
       <c r="C27" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
@@ -17815,83 +17912,83 @@
         <v>408</v>
       </c>
       <c r="C28" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C29" t="s">
-        <v>402</v>
+        <v>416</v>
       </c>
       <c r="D29">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E29">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C30" t="s">
-        <v>402</v>
+        <v>416</v>
       </c>
       <c r="D30">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E30">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C31" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E31">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C32" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C33" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="D33">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E33">
-        <v>31</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
@@ -17899,7 +17996,7 @@
         <v>410</v>
       </c>
       <c r="C34" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="D34">
         <v>5</v>
@@ -17913,13 +18010,13 @@
         <v>410</v>
       </c>
       <c r="C35" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E35">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
@@ -17927,13 +18024,13 @@
         <v>410</v>
       </c>
       <c r="C36" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D36">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E36">
-        <v>29</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
@@ -17941,13 +18038,13 @@
         <v>410</v>
       </c>
       <c r="C37" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D37">
         <v>2</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
@@ -17955,13 +18052,13 @@
         <v>410</v>
       </c>
       <c r="C38" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D38">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E38">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
@@ -17969,13 +18066,13 @@
         <v>410</v>
       </c>
       <c r="C39" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D39">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E39">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
@@ -17983,7 +18080,7 @@
         <v>410</v>
       </c>
       <c r="C40" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -17994,150 +18091,150 @@
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C41" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D41">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E41">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C42" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="D42">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E42">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C43" t="s">
-        <v>399</v>
+        <v>416</v>
       </c>
       <c r="D43">
+        <v>3</v>
+      </c>
+      <c r="E43">
         <v>5</v>
-      </c>
-      <c r="E43">
-        <v>7</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C44" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C45" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="D45">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E45">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C46" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C47" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="D47">
         <v>1</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C48" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="D48">
         <v>2</v>
       </c>
       <c r="E48">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C49" t="s">
         <v>399</v>
       </c>
       <c r="D49">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E49">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C50" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="D50">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E50">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C51" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="D51">
         <v>1</v>
@@ -18148,85 +18245,183 @@
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C52" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C53" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="D53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E53">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C54" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E54">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C55" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="D55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C56" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="D56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C57" t="s">
         <v>406</v>
       </c>
       <c r="D57">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>412</v>
+      </c>
+      <c r="C58" t="s">
+        <v>400</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>413</v>
+      </c>
+      <c r="C59" t="s">
+        <v>402</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>413</v>
+      </c>
+      <c r="C60" t="s">
+        <v>399</v>
+      </c>
+      <c r="D60">
+        <v>3</v>
+      </c>
+      <c r="E60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>413</v>
+      </c>
+      <c r="C61" t="s">
+        <v>399</v>
+      </c>
+      <c r="D61">
+        <v>2</v>
+      </c>
+      <c r="E61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>413</v>
+      </c>
+      <c r="C62" t="s">
+        <v>405</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>413</v>
+      </c>
+      <c r="C63" t="s">
+        <v>405</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>413</v>
+      </c>
+      <c r="C64" t="s">
+        <v>406</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
         <v>5</v>
       </c>
     </row>
@@ -18237,10 +18432,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L44"/>
+  <dimension ref="B1:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18256,6 +18451,27 @@
       <c r="C1" t="s">
         <v>415</v>
       </c>
+      <c r="D1" t="s">
+        <v>397</v>
+      </c>
+      <c r="E1" t="s">
+        <v>393</v>
+      </c>
+      <c r="F1" t="s">
+        <v>394</v>
+      </c>
+      <c r="I1" t="s">
+        <v>395</v>
+      </c>
+      <c r="J1" t="s">
+        <v>397</v>
+      </c>
+      <c r="K1" t="s">
+        <v>393</v>
+      </c>
+      <c r="L1" t="s">
+        <v>394</v>
+      </c>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2">
@@ -18625,10 +18841,10 @@
         <v>2014</v>
       </c>
       <c r="J14" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
         <v>1</v>
@@ -18642,39 +18858,39 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
+        <v>416</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>2014</v>
+      </c>
+      <c r="J15" t="s">
         <v>400</v>
       </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <v>2015</v>
-      </c>
-      <c r="J15" t="s">
-        <v>399</v>
-      </c>
       <c r="K15">
         <v>2</v>
       </c>
       <c r="L15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -18683,13 +18899,13 @@
         <v>2015</v>
       </c>
       <c r="J16" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
@@ -18697,7 +18913,7 @@
         <v>2015</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17" t="s">
         <v>399</v>
@@ -18709,10 +18925,10 @@
         <v>1</v>
       </c>
       <c r="I17">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="J17" t="s">
-        <v>399</v>
+        <v>416</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -18726,10 +18942,10 @@
         <v>2015</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -18738,7 +18954,7 @@
         <v>1</v>
       </c>
       <c r="I18">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="J18" t="s">
         <v>406</v>
@@ -18752,13 +18968,13 @@
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>399</v>
+        <v>416</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -18770,18 +18986,18 @@
         <v>2016</v>
       </c>
       <c r="J19" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -18796,16 +19012,16 @@
         <v>1</v>
       </c>
       <c r="I20">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="J20" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="K20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
@@ -18816,25 +19032,25 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
+        <v>399</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>2016</v>
+      </c>
+      <c r="J21" t="s">
         <v>402</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="I21">
-        <v>2017</v>
-      </c>
-      <c r="J21" t="s">
-        <v>406</v>
-      </c>
       <c r="K21">
         <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
@@ -18842,10 +19058,10 @@
         <v>2016</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -18857,53 +19073,53 @@
         <v>2017</v>
       </c>
       <c r="J22" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23">
         <v>2017</v>
       </c>
       <c r="J23" t="s">
-        <v>402</v>
+        <v>416</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L23">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C24">
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -18915,13 +19131,13 @@
         <v>2017</v>
       </c>
       <c r="J24" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
@@ -18932,25 +19148,25 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="E25">
         <v>2</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25">
         <v>2017</v>
       </c>
       <c r="J25" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="K25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L25">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
@@ -18961,25 +19177,25 @@
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="I26">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="J26" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="K26">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
@@ -18987,28 +19203,28 @@
         <v>2017</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>402</v>
+        <v>416</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="J27" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K27">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L27">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
@@ -19019,25 +19235,25 @@
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="J28" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
@@ -19045,115 +19261,115 @@
         <v>2017</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="E29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I29">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="J29" t="s">
         <v>399</v>
       </c>
       <c r="K29">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="L29">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B30">
+        <v>2017</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30" t="s">
+        <v>402</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="I30">
         <v>2018</v>
       </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30" t="s">
-        <v>399</v>
-      </c>
-      <c r="E30">
-        <v>4</v>
-      </c>
-      <c r="F30">
-        <v>2</v>
-      </c>
-      <c r="I30">
-        <v>2019</v>
-      </c>
       <c r="J30" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="K30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L30">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B31">
+        <v>2017</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>405</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="I31">
         <v>2018</v>
-      </c>
-      <c r="C31">
-        <v>2</v>
-      </c>
-      <c r="D31" t="s">
-        <v>399</v>
-      </c>
-      <c r="E31">
-        <v>2</v>
-      </c>
-      <c r="F31">
-        <v>2</v>
-      </c>
-      <c r="I31">
-        <v>2019</v>
       </c>
       <c r="J31" t="s">
         <v>406</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B32">
+        <v>2017</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>404</v>
+      </c>
+      <c r="E32">
+        <v>4</v>
+      </c>
+      <c r="F32">
+        <v>7</v>
+      </c>
+      <c r="I32">
         <v>2018</v>
       </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32" t="s">
-        <v>406</v>
-      </c>
-      <c r="E32">
-        <v>2</v>
-      </c>
-      <c r="F32">
-        <v>2</v>
-      </c>
-      <c r="I32">
-        <v>2019</v>
-      </c>
       <c r="J32" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="K32">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="L32">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.25">
@@ -19161,28 +19377,28 @@
         <v>2018</v>
       </c>
       <c r="C33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I33">
         <v>2019</v>
       </c>
       <c r="J33" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="K33">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="L33">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
@@ -19190,113 +19406,173 @@
         <v>2018</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D34" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I34">
         <v>2019</v>
       </c>
       <c r="J34" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="K34">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L34">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B35">
+        <v>2018</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>416</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+      <c r="I35">
         <v>2019</v>
       </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35" t="s">
-        <v>399</v>
-      </c>
-      <c r="E35">
-        <v>15</v>
-      </c>
-      <c r="F35">
-        <v>13</v>
+      <c r="J35" t="s">
+        <v>400</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B36">
+        <v>2018</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36" t="s">
+        <v>416</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="I36">
         <v>2019</v>
       </c>
-      <c r="C36">
-        <v>2</v>
-      </c>
-      <c r="D36" t="s">
-        <v>399</v>
-      </c>
-      <c r="E36">
-        <v>11</v>
-      </c>
-      <c r="F36">
-        <v>12</v>
+      <c r="J36" t="s">
+        <v>406</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B37">
+        <v>2018</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>406</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="I37">
         <v>2019</v>
       </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37" t="s">
-        <v>400</v>
-      </c>
-      <c r="E37">
-        <v>2</v>
-      </c>
-      <c r="F37">
-        <v>2</v>
+      <c r="J37" t="s">
+        <v>402</v>
+      </c>
+      <c r="K37">
+        <v>9</v>
+      </c>
+      <c r="L37">
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B38">
+        <v>2018</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38" t="s">
+        <v>406</v>
+      </c>
+      <c r="E38">
+        <v>3</v>
+      </c>
+      <c r="F38">
+        <v>3</v>
+      </c>
+      <c r="I38">
         <v>2019</v>
       </c>
-      <c r="C38">
-        <v>2</v>
-      </c>
-      <c r="D38" t="s">
-        <v>400</v>
-      </c>
-      <c r="E38">
-        <v>1</v>
-      </c>
-      <c r="F38">
-        <v>1</v>
+      <c r="J38" t="s">
+        <v>405</v>
+      </c>
+      <c r="K38">
+        <v>3</v>
+      </c>
+      <c r="L38">
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B39">
+        <v>2018</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>405</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="I39">
         <v>2019</v>
       </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39" t="s">
-        <v>406</v>
-      </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-      <c r="F39">
-        <v>1</v>
+      <c r="J39" t="s">
+        <v>404</v>
+      </c>
+      <c r="K39">
+        <v>7</v>
+      </c>
+      <c r="L39">
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.25">
@@ -19307,13 +19583,13 @@
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="E40">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F40">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.25">
@@ -19324,13 +19600,13 @@
         <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="E41">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F41">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.25">
@@ -19341,13 +19617,13 @@
         <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="E42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F42">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.25">
@@ -19358,13 +19634,13 @@
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="E43">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F43">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.25">
@@ -19375,13 +19651,539 @@
         <v>2</v>
       </c>
       <c r="D44" t="s">
+        <v>400</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>2019</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45" t="s">
+        <v>406</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>2019</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46" t="s">
+        <v>402</v>
+      </c>
+      <c r="E46">
+        <v>5</v>
+      </c>
+      <c r="F46">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>2019</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47" t="s">
+        <v>402</v>
+      </c>
+      <c r="E47">
+        <v>4</v>
+      </c>
+      <c r="F47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>2019</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48" t="s">
+        <v>405</v>
+      </c>
+      <c r="E48">
+        <v>3</v>
+      </c>
+      <c r="F48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>2019</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49" t="s">
         <v>404</v>
       </c>
-      <c r="E44">
-        <v>2</v>
-      </c>
-      <c r="F44">
+      <c r="E49">
+        <v>5</v>
+      </c>
+      <c r="F49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>2019</v>
+      </c>
+      <c r="C50">
+        <v>2</v>
+      </c>
+      <c r="D50" t="s">
+        <v>404</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
+      <c r="F50">
         <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:E29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="34.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C1" t="s">
+        <v>397</v>
+      </c>
+      <c r="D1" t="s">
+        <v>393</v>
+      </c>
+      <c r="E1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>2008</v>
+      </c>
+      <c r="C2" t="s">
+        <v>400</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>2011</v>
+      </c>
+      <c r="C3" t="s">
+        <v>399</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>2012</v>
+      </c>
+      <c r="C4" t="s">
+        <v>399</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>2012</v>
+      </c>
+      <c r="C5" t="s">
+        <v>402</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>2013</v>
+      </c>
+      <c r="C6" t="s">
+        <v>399</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>2014</v>
+      </c>
+      <c r="C7" t="s">
+        <v>404</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>2015</v>
+      </c>
+      <c r="C8" t="s">
+        <v>399</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>2015</v>
+      </c>
+      <c r="C9" t="s">
+        <v>406</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>2016</v>
+      </c>
+      <c r="C10" t="s">
+        <v>399</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>2016</v>
+      </c>
+      <c r="C11" t="s">
+        <v>406</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>2016</v>
+      </c>
+      <c r="C12" t="s">
+        <v>402</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>2017</v>
+      </c>
+      <c r="C13" t="s">
+        <v>399</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>2017</v>
+      </c>
+      <c r="C14" t="s">
+        <v>416</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>2017</v>
+      </c>
+      <c r="C15" t="s">
+        <v>406</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>2017</v>
+      </c>
+      <c r="C16" t="s">
+        <v>409</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>2017</v>
+      </c>
+      <c r="C17" t="s">
+        <v>402</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>2017</v>
+      </c>
+      <c r="C18" t="s">
+        <v>404</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>2018</v>
+      </c>
+      <c r="C19" t="s">
+        <v>399</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>2018</v>
+      </c>
+      <c r="C20" t="s">
+        <v>416</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>2018</v>
+      </c>
+      <c r="C21" t="s">
+        <v>406</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>2018</v>
+      </c>
+      <c r="C22" t="s">
+        <v>405</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>2019</v>
+      </c>
+      <c r="C23" t="s">
+        <v>399</v>
+      </c>
+      <c r="D23">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>2019</v>
+      </c>
+      <c r="C24" t="s">
+        <v>416</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>2019</v>
+      </c>
+      <c r="C25" t="s">
+        <v>400</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>2019</v>
+      </c>
+      <c r="C26" t="s">
+        <v>406</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>2019</v>
+      </c>
+      <c r="C27" t="s">
+        <v>402</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>2019</v>
+      </c>
+      <c r="C28" t="s">
+        <v>405</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>2019</v>
+      </c>
+      <c r="C29" t="s">
+        <v>404</v>
+      </c>
+      <c r="D29">
+        <v>4</v>
+      </c>
+      <c r="E29">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/LectureNotes/6.1.SSHPA(top affiliation)/Data/data.xlsx
+++ b/LectureNotes/6.1.SSHPA(top affiliation)/Data/data.xlsx
@@ -13,13 +13,14 @@
     <sheet name="Age" sheetId="4" r:id="rId4"/>
     <sheet name="New Authors" sheetId="5" r:id="rId5"/>
     <sheet name="Leaders" sheetId="6" r:id="rId6"/>
+    <sheet name="Co-Author" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="431">
   <si>
     <t>National Economics University Hanoi</t>
   </si>
@@ -1270,6 +1271,48 @@
   </si>
   <si>
     <t>(VASS) Vietnam Academy of Social Sciences</t>
+  </si>
+  <si>
+    <t>Co-Author rate</t>
+  </si>
+  <si>
+    <t>Affil</t>
+  </si>
+  <si>
+    <t>Affil Id</t>
+  </si>
+  <si>
+    <t>NEW</t>
+  </si>
+  <si>
+    <t>VASS</t>
+  </si>
+  <si>
+    <t>VNUH</t>
+  </si>
+  <si>
+    <t>UOEH</t>
+  </si>
+  <si>
+    <t>VNUHCM</t>
+  </si>
+  <si>
+    <t>FTU</t>
+  </si>
+  <si>
+    <t>TMU</t>
+  </si>
+  <si>
+    <t>HCMOpenUni</t>
+  </si>
+  <si>
+    <t>Co-Author Rate</t>
+  </si>
+  <si>
+    <t>lead article</t>
+  </si>
+  <si>
+    <t>non-lead article</t>
   </si>
 </sst>
 </file>
@@ -1329,6 +1372,396 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Leaders!$K$2:$K$9</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>NEW</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>VASS</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>VNUH</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>UOEH</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>VNUHCM</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>FTU</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>TMU</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>HCMOpenUni</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Leaders!$L$2:$L$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.49707602339181284</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.47619047619047616</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.57692307692307687</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.63157894736842102</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.47727272727272729</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="210247680"/>
+        <c:axId val="46692544"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="210247680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="46692544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="46692544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="210247680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Co-Author Rate</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Rate</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Co-Author'!$E$3:$E$10</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>NEW</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>VASS</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>VNUH</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>UOEH</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>VNUHCM</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>FTU</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>TMU</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>HCMOpenUni</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Co-Author'!$B$3:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.502413678060596</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.47469136036104598</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4639279730618</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.57643849651018797</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.72988505969787498</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.493318322341184</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.39259259733888802</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.70833333688122901</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="162788352"/>
+        <c:axId val="127316480"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="162788352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="127316480"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="127316480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="162788352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>71437</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>423862</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>409574</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -19769,18 +20202,20 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E29"/>
+  <dimension ref="B1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="34.28515625" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>395</v>
       </c>
@@ -19793,8 +20228,14 @@
       <c r="E1" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>429</v>
+      </c>
+      <c r="H1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>2008</v>
       </c>
@@ -19807,8 +20248,27 @@
       <c r="E2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <v>85</v>
+      </c>
+      <c r="H2">
+        <v>86</v>
+      </c>
+      <c r="I2">
+        <v>10847</v>
+      </c>
+      <c r="J2" t="s">
+        <v>399</v>
+      </c>
+      <c r="K2" t="s">
+        <v>420</v>
+      </c>
+      <c r="L2">
+        <f>G2/(G2+H2)</f>
+        <v>0.49707602339181284</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>2011</v>
       </c>
@@ -19821,8 +20281,27 @@
       <c r="E3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>11</v>
+      </c>
+      <c r="I3">
+        <v>10863</v>
+      </c>
+      <c r="J3" t="s">
+        <v>416</v>
+      </c>
+      <c r="K3" t="s">
+        <v>421</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L9" si="0">G3/(G3+H3)</f>
+        <v>0.47619047619047616</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>2012</v>
       </c>
@@ -19835,8 +20314,27 @@
       <c r="E4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>45</v>
+      </c>
+      <c r="H4">
+        <v>33</v>
+      </c>
+      <c r="I4">
+        <v>10865</v>
+      </c>
+      <c r="J4" t="s">
+        <v>400</v>
+      </c>
+      <c r="K4" t="s">
+        <v>422</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>0.57692307692307687</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>2012</v>
       </c>
@@ -19849,8 +20347,27 @@
       <c r="E5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>72</v>
+      </c>
+      <c r="H5">
+        <v>42</v>
+      </c>
+      <c r="I5">
+        <v>10872</v>
+      </c>
+      <c r="J5" t="s">
+        <v>406</v>
+      </c>
+      <c r="K5" t="s">
+        <v>423</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>0.63157894736842102</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>2013</v>
       </c>
@@ -19863,8 +20380,27 @@
       <c r="E6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>21</v>
+      </c>
+      <c r="H6">
+        <v>9</v>
+      </c>
+      <c r="I6">
+        <v>10892</v>
+      </c>
+      <c r="J6" t="s">
+        <v>409</v>
+      </c>
+      <c r="K6" t="s">
+        <v>424</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>2014</v>
       </c>
@@ -19877,8 +20413,27 @@
       <c r="E7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>21</v>
+      </c>
+      <c r="H7">
+        <v>23</v>
+      </c>
+      <c r="I7">
+        <v>10981</v>
+      </c>
+      <c r="J7" t="s">
+        <v>402</v>
+      </c>
+      <c r="K7" t="s">
+        <v>425</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>0.47727272727272729</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>2015</v>
       </c>
@@ -19891,8 +20446,27 @@
       <c r="E8">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <v>13</v>
+      </c>
+      <c r="H8">
+        <v>7</v>
+      </c>
+      <c r="I8">
+        <v>10990</v>
+      </c>
+      <c r="J8" t="s">
+        <v>405</v>
+      </c>
+      <c r="K8" t="s">
+        <v>426</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>2015</v>
       </c>
@@ -19905,8 +20479,27 @@
       <c r="E9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <v>21</v>
+      </c>
+      <c r="H9">
+        <v>21</v>
+      </c>
+      <c r="I9">
+        <v>10997</v>
+      </c>
+      <c r="J9" t="s">
+        <v>404</v>
+      </c>
+      <c r="K9" t="s">
+        <v>427</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>2016</v>
       </c>
@@ -19920,7 +20513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>2016</v>
       </c>
@@ -19934,7 +20527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>2016</v>
       </c>
@@ -19948,7 +20541,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>2017</v>
       </c>
@@ -19962,7 +20555,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>2017</v>
       </c>
@@ -19976,7 +20569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>2017</v>
       </c>
@@ -19990,7 +20583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>2017</v>
       </c>
@@ -20188,5 +20781,1260 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E97"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>417</v>
+      </c>
+      <c r="C2" t="s">
+        <v>419</v>
+      </c>
+      <c r="D2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>0.502413678060596</v>
+      </c>
+      <c r="C3">
+        <v>10847</v>
+      </c>
+      <c r="D3" t="s">
+        <v>399</v>
+      </c>
+      <c r="E3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>0.47469136036104598</v>
+      </c>
+      <c r="C4">
+        <v>10863</v>
+      </c>
+      <c r="D4" t="s">
+        <v>416</v>
+      </c>
+      <c r="E4" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>0.4639279730618</v>
+      </c>
+      <c r="C5">
+        <v>10865</v>
+      </c>
+      <c r="D5" t="s">
+        <v>400</v>
+      </c>
+      <c r="E5" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>0.57643849651018797</v>
+      </c>
+      <c r="C6">
+        <v>10872</v>
+      </c>
+      <c r="D6" t="s">
+        <v>406</v>
+      </c>
+      <c r="E6" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>0.72988505969787498</v>
+      </c>
+      <c r="C7">
+        <v>10892</v>
+      </c>
+      <c r="D7" t="s">
+        <v>409</v>
+      </c>
+      <c r="E7" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>0.493318322341184</v>
+      </c>
+      <c r="C8">
+        <v>10981</v>
+      </c>
+      <c r="D8" t="s">
+        <v>402</v>
+      </c>
+      <c r="E8" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>0.39259259733888802</v>
+      </c>
+      <c r="C9">
+        <v>10990</v>
+      </c>
+      <c r="D9" t="s">
+        <v>405</v>
+      </c>
+      <c r="E9" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>0.70833333688122901</v>
+      </c>
+      <c r="C10">
+        <v>10997</v>
+      </c>
+      <c r="D10" t="s">
+        <v>404</v>
+      </c>
+      <c r="E10" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>0.61111111442248001</v>
+      </c>
+      <c r="C19">
+        <v>10847</v>
+      </c>
+      <c r="D19">
+        <v>2008</v>
+      </c>
+      <c r="E19" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>0.29632034791367401</v>
+      </c>
+      <c r="C20">
+        <v>10865</v>
+      </c>
+      <c r="D20">
+        <v>2008</v>
+      </c>
+      <c r="E20" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>0.5</v>
+      </c>
+      <c r="C21">
+        <v>10872</v>
+      </c>
+      <c r="D21">
+        <v>2008</v>
+      </c>
+      <c r="E21" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>0.58717201397355101</v>
+      </c>
+      <c r="C22">
+        <v>10847</v>
+      </c>
+      <c r="D22">
+        <v>2009</v>
+      </c>
+      <c r="E22" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>0.246666672825813</v>
+      </c>
+      <c r="C23">
+        <v>10865</v>
+      </c>
+      <c r="D23">
+        <v>2009</v>
+      </c>
+      <c r="E23" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="C24">
+        <v>10872</v>
+      </c>
+      <c r="D24">
+        <v>2009</v>
+      </c>
+      <c r="E24" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>0.66666667163371995</v>
+      </c>
+      <c r="C25">
+        <v>10892</v>
+      </c>
+      <c r="D25">
+        <v>2009</v>
+      </c>
+      <c r="E25" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>0.33333334326744102</v>
+      </c>
+      <c r="C26">
+        <v>10981</v>
+      </c>
+      <c r="D26">
+        <v>2009</v>
+      </c>
+      <c r="E26" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>0.5</v>
+      </c>
+      <c r="C27">
+        <v>10990</v>
+      </c>
+      <c r="D27">
+        <v>2009</v>
+      </c>
+      <c r="E27" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>0.43333333730697599</v>
+      </c>
+      <c r="C28">
+        <v>10847</v>
+      </c>
+      <c r="D28">
+        <v>2010</v>
+      </c>
+      <c r="E28" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>0.5</v>
+      </c>
+      <c r="C29">
+        <v>10863</v>
+      </c>
+      <c r="D29">
+        <v>2010</v>
+      </c>
+      <c r="E29" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>0.35000000149011601</v>
+      </c>
+      <c r="C30">
+        <v>10865</v>
+      </c>
+      <c r="D30">
+        <v>2010</v>
+      </c>
+      <c r="E30" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>0.33333334326744102</v>
+      </c>
+      <c r="C31">
+        <v>10872</v>
+      </c>
+      <c r="D31">
+        <v>2010</v>
+      </c>
+      <c r="E31" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>0.8125</v>
+      </c>
+      <c r="C32">
+        <v>10892</v>
+      </c>
+      <c r="D32">
+        <v>2010</v>
+      </c>
+      <c r="E32" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>0.41666667163372001</v>
+      </c>
+      <c r="C33">
+        <v>10981</v>
+      </c>
+      <c r="D33">
+        <v>2010</v>
+      </c>
+      <c r="E33" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>0.5</v>
+      </c>
+      <c r="C34">
+        <v>10990</v>
+      </c>
+      <c r="D34">
+        <v>2010</v>
+      </c>
+      <c r="E34" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>0.339999999850988</v>
+      </c>
+      <c r="C35">
+        <v>10847</v>
+      </c>
+      <c r="D35">
+        <v>2011</v>
+      </c>
+      <c r="E35" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>0.54166666790842999</v>
+      </c>
+      <c r="C36">
+        <v>10863</v>
+      </c>
+      <c r="D36">
+        <v>2011</v>
+      </c>
+      <c r="E36" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>0.533333333830039</v>
+      </c>
+      <c r="C37">
+        <v>10865</v>
+      </c>
+      <c r="D37">
+        <v>2011</v>
+      </c>
+      <c r="E37" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>0.38095238591943498</v>
+      </c>
+      <c r="C38">
+        <v>10872</v>
+      </c>
+      <c r="D38">
+        <v>2011</v>
+      </c>
+      <c r="E38" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>0.78787878968498903</v>
+      </c>
+      <c r="C39">
+        <v>10892</v>
+      </c>
+      <c r="D39">
+        <v>2011</v>
+      </c>
+      <c r="E39" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>10981</v>
+      </c>
+      <c r="D40">
+        <v>2011</v>
+      </c>
+      <c r="E40" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>0.5</v>
+      </c>
+      <c r="C41">
+        <v>10990</v>
+      </c>
+      <c r="D41">
+        <v>2011</v>
+      </c>
+      <c r="E41" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>0.56018518532315897</v>
+      </c>
+      <c r="C42">
+        <v>10847</v>
+      </c>
+      <c r="D42">
+        <v>2012</v>
+      </c>
+      <c r="E42" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>0.53125000372528997</v>
+      </c>
+      <c r="C43">
+        <v>10865</v>
+      </c>
+      <c r="D43">
+        <v>2012</v>
+      </c>
+      <c r="E43" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>0.29166667163372001</v>
+      </c>
+      <c r="C44">
+        <v>10872</v>
+      </c>
+      <c r="D44">
+        <v>2012</v>
+      </c>
+      <c r="E44" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>10892</v>
+      </c>
+      <c r="D45">
+        <v>2012</v>
+      </c>
+      <c r="E45" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>0.30555555596947698</v>
+      </c>
+      <c r="C46">
+        <v>10981</v>
+      </c>
+      <c r="D46">
+        <v>2012</v>
+      </c>
+      <c r="E46" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>0.54791666865348798</v>
+      </c>
+      <c r="C47">
+        <v>10847</v>
+      </c>
+      <c r="D47">
+        <v>2013</v>
+      </c>
+      <c r="E47" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>0.28703703731298402</v>
+      </c>
+      <c r="C48">
+        <v>10863</v>
+      </c>
+      <c r="D48">
+        <v>2013</v>
+      </c>
+      <c r="E48" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>0.58333333581685998</v>
+      </c>
+      <c r="C49">
+        <v>10865</v>
+      </c>
+      <c r="D49">
+        <v>2013</v>
+      </c>
+      <c r="E49" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>0.38888889551162698</v>
+      </c>
+      <c r="C50">
+        <v>10872</v>
+      </c>
+      <c r="D50">
+        <v>2013</v>
+      </c>
+      <c r="E50" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>0.5</v>
+      </c>
+      <c r="C51">
+        <v>10981</v>
+      </c>
+      <c r="D51">
+        <v>2013</v>
+      </c>
+      <c r="E51" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>0.33333334326744102</v>
+      </c>
+      <c r="C52">
+        <v>10990</v>
+      </c>
+      <c r="D52">
+        <v>2013</v>
+      </c>
+      <c r="E52" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>0.66666667163371995</v>
+      </c>
+      <c r="C53">
+        <v>10997</v>
+      </c>
+      <c r="D53">
+        <v>2013</v>
+      </c>
+      <c r="E53" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>0.38194444672101102</v>
+      </c>
+      <c r="C54">
+        <v>10847</v>
+      </c>
+      <c r="D54">
+        <v>2014</v>
+      </c>
+      <c r="E54" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>0.45000000298023202</v>
+      </c>
+      <c r="C55">
+        <v>10863</v>
+      </c>
+      <c r="D55">
+        <v>2014</v>
+      </c>
+      <c r="E55" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>0.61666666865348796</v>
+      </c>
+      <c r="C56">
+        <v>10865</v>
+      </c>
+      <c r="D56">
+        <v>2014</v>
+      </c>
+      <c r="E56" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>0.54166667163371995</v>
+      </c>
+      <c r="C57">
+        <v>10872</v>
+      </c>
+      <c r="D57">
+        <v>2014</v>
+      </c>
+      <c r="E57" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>0.41666667163372001</v>
+      </c>
+      <c r="C58">
+        <v>10981</v>
+      </c>
+      <c r="D58">
+        <v>2014</v>
+      </c>
+      <c r="E58" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <v>0.5</v>
+      </c>
+      <c r="C59">
+        <v>10990</v>
+      </c>
+      <c r="D59">
+        <v>2014</v>
+      </c>
+      <c r="E59" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <v>0.50000000993410698</v>
+      </c>
+      <c r="C60">
+        <v>10997</v>
+      </c>
+      <c r="D60">
+        <v>2014</v>
+      </c>
+      <c r="E60" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <v>0.69629630115297103</v>
+      </c>
+      <c r="C61">
+        <v>10847</v>
+      </c>
+      <c r="D61">
+        <v>2015</v>
+      </c>
+      <c r="E61" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <v>0.5</v>
+      </c>
+      <c r="C62">
+        <v>10863</v>
+      </c>
+      <c r="D62">
+        <v>2015</v>
+      </c>
+      <c r="E62" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>0.247142860293388</v>
+      </c>
+      <c r="C63">
+        <v>10865</v>
+      </c>
+      <c r="D63">
+        <v>2015</v>
+      </c>
+      <c r="E63" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <v>0.67976191001278996</v>
+      </c>
+      <c r="C64">
+        <v>10872</v>
+      </c>
+      <c r="D64">
+        <v>2015</v>
+      </c>
+      <c r="E64" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <v>0.50000001490116097</v>
+      </c>
+      <c r="C65">
+        <v>10981</v>
+      </c>
+      <c r="D65">
+        <v>2015</v>
+      </c>
+      <c r="E65" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <v>0.66000000834465</v>
+      </c>
+      <c r="C66">
+        <v>10847</v>
+      </c>
+      <c r="D66">
+        <v>2016</v>
+      </c>
+      <c r="E66" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <v>0.46666666865348799</v>
+      </c>
+      <c r="C67">
+        <v>10865</v>
+      </c>
+      <c r="D67">
+        <v>2016</v>
+      </c>
+      <c r="E67" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B68">
+        <v>0.75000000175307802</v>
+      </c>
+      <c r="C68">
+        <v>10872</v>
+      </c>
+      <c r="D68">
+        <v>2016</v>
+      </c>
+      <c r="E68" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B69">
+        <v>0.33333334326744102</v>
+      </c>
+      <c r="C69">
+        <v>10892</v>
+      </c>
+      <c r="D69">
+        <v>2016</v>
+      </c>
+      <c r="E69" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B70">
+        <v>0.45729167200624898</v>
+      </c>
+      <c r="C70">
+        <v>10981</v>
+      </c>
+      <c r="D70">
+        <v>2016</v>
+      </c>
+      <c r="E70" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B71">
+        <v>0.20000000298023199</v>
+      </c>
+      <c r="C71">
+        <v>10990</v>
+      </c>
+      <c r="D71">
+        <v>2016</v>
+      </c>
+      <c r="E71" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B72">
+        <v>0.40000000674473601</v>
+      </c>
+      <c r="C72">
+        <v>10847</v>
+      </c>
+      <c r="D72">
+        <v>2017</v>
+      </c>
+      <c r="E72" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B73">
+        <v>0.63888889054457298</v>
+      </c>
+      <c r="C73">
+        <v>10863</v>
+      </c>
+      <c r="D73">
+        <v>2017</v>
+      </c>
+      <c r="E73" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <v>0.39333334267139403</v>
+      </c>
+      <c r="C74">
+        <v>10865</v>
+      </c>
+      <c r="D74">
+        <v>2017</v>
+      </c>
+      <c r="E74" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B75">
+        <v>0.71666666865348805</v>
+      </c>
+      <c r="C75">
+        <v>10872</v>
+      </c>
+      <c r="D75">
+        <v>2017</v>
+      </c>
+      <c r="E75" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B76">
+        <v>0.66666668653488204</v>
+      </c>
+      <c r="C76">
+        <v>10892</v>
+      </c>
+      <c r="D76">
+        <v>2017</v>
+      </c>
+      <c r="E76" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B77">
+        <v>0.383333337306976</v>
+      </c>
+      <c r="C77">
+        <v>10981</v>
+      </c>
+      <c r="D77">
+        <v>2017</v>
+      </c>
+      <c r="E77" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B78">
+        <v>0.46666667237877801</v>
+      </c>
+      <c r="C78">
+        <v>10990</v>
+      </c>
+      <c r="D78">
+        <v>2017</v>
+      </c>
+      <c r="E78" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B79">
+        <v>0.72222222222222199</v>
+      </c>
+      <c r="C79">
+        <v>10997</v>
+      </c>
+      <c r="D79">
+        <v>2017</v>
+      </c>
+      <c r="E79" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B80">
+        <v>0.45789474170458899</v>
+      </c>
+      <c r="C80">
+        <v>10847</v>
+      </c>
+      <c r="D80">
+        <v>2018</v>
+      </c>
+      <c r="E80" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B81">
+        <v>0.72222222884496101</v>
+      </c>
+      <c r="C81">
+        <v>10863</v>
+      </c>
+      <c r="D81">
+        <v>2018</v>
+      </c>
+      <c r="E81" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B82">
+        <v>0.6</v>
+      </c>
+      <c r="C82">
+        <v>10865</v>
+      </c>
+      <c r="D82">
+        <v>2018</v>
+      </c>
+      <c r="E82" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B83">
+        <v>0.51498600051683496</v>
+      </c>
+      <c r="C83">
+        <v>10872</v>
+      </c>
+      <c r="D83">
+        <v>2018</v>
+      </c>
+      <c r="E83" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B84">
+        <v>0.16666667163372001</v>
+      </c>
+      <c r="C84">
+        <v>10892</v>
+      </c>
+      <c r="D84">
+        <v>2018</v>
+      </c>
+      <c r="E84" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B85">
+        <v>0.29166667163372001</v>
+      </c>
+      <c r="C85">
+        <v>10981</v>
+      </c>
+      <c r="D85">
+        <v>2018</v>
+      </c>
+      <c r="E85" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B86">
+        <v>0.33333333830038703</v>
+      </c>
+      <c r="C86">
+        <v>10990</v>
+      </c>
+      <c r="D86">
+        <v>2018</v>
+      </c>
+      <c r="E86" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87">
+        <v>10997</v>
+      </c>
+      <c r="D87">
+        <v>2018</v>
+      </c>
+      <c r="E87" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B88">
+        <v>0.49911230057478001</v>
+      </c>
+      <c r="C88">
+        <v>10847</v>
+      </c>
+      <c r="D88">
+        <v>2019</v>
+      </c>
+      <c r="E88" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B89">
+        <v>0.20555555820465099</v>
+      </c>
+      <c r="C89">
+        <v>10863</v>
+      </c>
+      <c r="D89">
+        <v>2019</v>
+      </c>
+      <c r="E89" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B90">
+        <v>0.46402116616567002</v>
+      </c>
+      <c r="C90">
+        <v>10865</v>
+      </c>
+      <c r="D90">
+        <v>2019</v>
+      </c>
+      <c r="E90" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B91">
+        <v>0.39242424477230398</v>
+      </c>
+      <c r="C91">
+        <v>10872</v>
+      </c>
+      <c r="D91">
+        <v>2019</v>
+      </c>
+      <c r="E91" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B92">
+        <v>0.5</v>
+      </c>
+      <c r="C92">
+        <v>10892</v>
+      </c>
+      <c r="D92">
+        <v>2019</v>
+      </c>
+      <c r="E92" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B93">
+        <v>0.63484848629344603</v>
+      </c>
+      <c r="C93">
+        <v>10981</v>
+      </c>
+      <c r="D93">
+        <v>2019</v>
+      </c>
+      <c r="E93" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B94">
+        <v>0.29166667535901097</v>
+      </c>
+      <c r="C94">
+        <v>10990</v>
+      </c>
+      <c r="D94">
+        <v>2019</v>
+      </c>
+      <c r="E94" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B95">
+        <v>0.75000000496705399</v>
+      </c>
+      <c r="C95">
+        <v>10997</v>
+      </c>
+      <c r="D95">
+        <v>2019</v>
+      </c>
+      <c r="E95" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B96">
+        <v>0.66666668653488204</v>
+      </c>
+      <c r="C96">
+        <v>10872</v>
+      </c>
+      <c r="D96">
+        <v>2020</v>
+      </c>
+      <c r="E96" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B97">
+        <v>0.5</v>
+      </c>
+      <c r="C97">
+        <v>10997</v>
+      </c>
+      <c r="D97">
+        <v>2020</v>
+      </c>
+      <c r="E97" t="s">
+        <v>404</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/LectureNotes/6.1.SSHPA(top affiliation)/Data/data.xlsx
+++ b/LectureNotes/6.1.SSHPA(top affiliation)/Data/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="345" windowWidth="26595" windowHeight="10275" activeTab="5"/>
+    <workbookView xWindow="360" yWindow="345" windowWidth="26595" windowHeight="10275" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="New Authors" sheetId="5" r:id="rId5"/>
     <sheet name="Leaders" sheetId="6" r:id="rId6"/>
     <sheet name="Co-Author" sheetId="7" r:id="rId7"/>
+    <sheet name="JIF" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="436">
   <si>
     <t>National Economics University Hanoi</t>
   </si>
@@ -1313,6 +1314,21 @@
   </si>
   <si>
     <t>non-lead article</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>AffilId</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>JIF</t>
+  </si>
+  <si>
+    <t>#Source</t>
   </si>
 </sst>
 </file>
@@ -1438,25 +1454,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.49707602339181284</c:v>
+                  <c:v>0.48275862068965519</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.47619047619047616</c:v>
+                  <c:v>0.46153846153846156</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.57692307692307687</c:v>
+                  <c:v>0.375</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.63157894736842102</c:v>
+                  <c:v>0.671875</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.7</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.47727272727272729</c:v>
+                  <c:v>0.48148148148148145</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.65</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.5</c:v>
@@ -1474,11 +1490,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="210247680"/>
-        <c:axId val="46692544"/>
+        <c:axId val="151102976"/>
+        <c:axId val="137406720"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="210247680"/>
+        <c:axId val="151102976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1487,7 +1503,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="46692544"/>
+        <c:crossAx val="137406720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1495,7 +1511,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="46692544"/>
+        <c:axId val="137406720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1506,7 +1522,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="210247680"/>
+        <c:crossAx val="151102976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1609,28 +1625,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.502413678060596</c:v>
+                  <c:v>0.54847414635362202</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.47469136036104598</c:v>
+                  <c:v>0.41833333671092998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.4639279730618</c:v>
+                  <c:v>0.440476194024086</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.57643849651018797</c:v>
+                  <c:v>0.584848489002748</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.72988505969787498</c:v>
+                  <c:v>0.66666667163371995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.493318322341184</c:v>
+                  <c:v>0.46243961641322001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.39259259733888802</c:v>
+                  <c:v>0.36363636905496799</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.70833333688122901</c:v>
+                  <c:v>0.70833333581685998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1645,11 +1661,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="162788352"/>
-        <c:axId val="127316480"/>
+        <c:axId val="151105024"/>
+        <c:axId val="137408448"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="162788352"/>
+        <c:axId val="151105024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1658,7 +1674,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127316480"/>
+        <c:crossAx val="137408448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1666,7 +1682,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="127316480"/>
+        <c:axId val="137408448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1677,7 +1693,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162788352"/>
+        <c:crossAx val="151105024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12560,7 +12576,7 @@
   <dimension ref="A1:H179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17043,18 +17059,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J55"/>
+  <dimension ref="B1:Q73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:D14"/>
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="8" max="8" width="37.140625" customWidth="1"/>
+    <col min="15" max="15" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>396</v>
       </c>
@@ -17070,8 +17087,23 @@
       <c r="J1" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="M1" t="s">
+        <v>395</v>
+      </c>
+      <c r="N1" t="s">
+        <v>431</v>
+      </c>
+      <c r="O1" t="s">
+        <v>397</v>
+      </c>
+      <c r="P1" t="s">
+        <v>393</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>395</v>
       </c>
@@ -17093,8 +17125,23 @@
       <c r="J2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="M2">
+        <v>2008</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2" t="s">
+        <v>400</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>2008</v>
       </c>
@@ -17116,8 +17163,23 @@
       <c r="J3">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="M3">
+        <v>2009</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3" t="s">
+        <v>399</v>
+      </c>
+      <c r="P3">
+        <v>5</v>
+      </c>
+      <c r="Q3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>2009</v>
       </c>
@@ -17139,8 +17201,23 @@
       <c r="J4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="M4">
+        <v>2009</v>
+      </c>
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4" t="s">
+        <v>399</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>2010</v>
       </c>
@@ -17162,8 +17239,23 @@
       <c r="J5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="M5">
+        <v>2009</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5" t="s">
+        <v>402</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>2011</v>
       </c>
@@ -17185,8 +17277,23 @@
       <c r="J6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="M6">
+        <v>2010</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6" t="s">
+        <v>399</v>
+      </c>
+      <c r="P6">
+        <v>3</v>
+      </c>
+      <c r="Q6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>2012</v>
       </c>
@@ -17208,8 +17315,23 @@
       <c r="J7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="M7">
+        <v>2010</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7" t="s">
+        <v>409</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>2013</v>
       </c>
@@ -17231,8 +17353,23 @@
       <c r="J8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="M8">
+        <v>2010</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8" t="s">
+        <v>402</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>2014</v>
       </c>
@@ -17254,8 +17391,23 @@
       <c r="J9">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="M9">
+        <v>2010</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9" t="s">
+        <v>405</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>2015</v>
       </c>
@@ -17277,8 +17429,23 @@
       <c r="J10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="M10">
+        <v>2011</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10" t="s">
+        <v>399</v>
+      </c>
+      <c r="P10">
+        <v>3</v>
+      </c>
+      <c r="Q10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>2016</v>
       </c>
@@ -17300,8 +17467,23 @@
       <c r="J11">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="M11">
+        <v>2011</v>
+      </c>
+      <c r="N11">
+        <v>2</v>
+      </c>
+      <c r="O11" t="s">
+        <v>400</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>2017</v>
       </c>
@@ -17323,8 +17505,23 @@
       <c r="J12">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="M12">
+        <v>2011</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12" t="s">
+        <v>406</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>2018</v>
       </c>
@@ -17346,8 +17543,23 @@
       <c r="J13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="M13">
+        <v>2011</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13" t="s">
+        <v>409</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>2019</v>
       </c>
@@ -17369,8 +17581,23 @@
       <c r="J14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="M14">
+        <v>2011</v>
+      </c>
+      <c r="N14">
+        <v>2</v>
+      </c>
+      <c r="O14" t="s">
+        <v>409</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="G15">
         <v>2012</v>
       </c>
@@ -17383,8 +17610,23 @@
       <c r="J15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="M15">
+        <v>2011</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15" t="s">
+        <v>405</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
       <c r="G16">
         <v>2012</v>
       </c>
@@ -17397,8 +17639,23 @@
       <c r="J16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="M16">
+        <v>2012</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16" t="s">
+        <v>399</v>
+      </c>
+      <c r="P16">
+        <v>2</v>
+      </c>
+      <c r="Q16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G17">
         <v>2013</v>
       </c>
@@ -17411,8 +17668,23 @@
       <c r="J17">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="M17">
+        <v>2012</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17" t="s">
+        <v>406</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G18">
         <v>2013</v>
       </c>
@@ -17425,8 +17697,23 @@
       <c r="J18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="M18">
+        <v>2012</v>
+      </c>
+      <c r="N18">
+        <v>2</v>
+      </c>
+      <c r="O18" t="s">
+        <v>402</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G19">
         <v>2013</v>
       </c>
@@ -17439,8 +17726,23 @@
       <c r="J19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="M19">
+        <v>2013</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19" t="s">
+        <v>399</v>
+      </c>
+      <c r="P19">
+        <v>4</v>
+      </c>
+      <c r="Q19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G20">
         <v>2013</v>
       </c>
@@ -17453,8 +17755,23 @@
       <c r="J20">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="M20">
+        <v>2013</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20" t="s">
+        <v>416</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G21">
         <v>2013</v>
       </c>
@@ -17467,8 +17784,23 @@
       <c r="J21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="M21">
+        <v>2013</v>
+      </c>
+      <c r="N21">
+        <v>2</v>
+      </c>
+      <c r="O21" t="s">
+        <v>400</v>
+      </c>
+      <c r="P21">
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G22">
         <v>2013</v>
       </c>
@@ -17481,8 +17813,23 @@
       <c r="J22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="M22">
+        <v>2013</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22" t="s">
+        <v>406</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G23">
         <v>2014</v>
       </c>
@@ -17495,8 +17842,23 @@
       <c r="J23">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="M23">
+        <v>2013</v>
+      </c>
+      <c r="N23">
+        <v>2</v>
+      </c>
+      <c r="O23" t="s">
+        <v>406</v>
+      </c>
+      <c r="P23">
+        <v>1</v>
+      </c>
+      <c r="Q23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G24">
         <v>2014</v>
       </c>
@@ -17509,8 +17871,23 @@
       <c r="J24">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="M24">
+        <v>2013</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24" t="s">
+        <v>402</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
+      </c>
+      <c r="Q24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G25">
         <v>2014</v>
       </c>
@@ -17523,8 +17900,23 @@
       <c r="J25">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="M25">
+        <v>2013</v>
+      </c>
+      <c r="N25">
+        <v>2</v>
+      </c>
+      <c r="O25" t="s">
+        <v>405</v>
+      </c>
+      <c r="P25">
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G26">
         <v>2014</v>
       </c>
@@ -17537,8 +17929,23 @@
       <c r="J26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="M26">
+        <v>2014</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26" t="s">
+        <v>399</v>
+      </c>
+      <c r="P26">
+        <v>1</v>
+      </c>
+      <c r="Q26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G27">
         <v>2014</v>
       </c>
@@ -17551,8 +17958,23 @@
       <c r="J27">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="M27">
+        <v>2014</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27" t="s">
+        <v>416</v>
+      </c>
+      <c r="P27">
+        <v>3</v>
+      </c>
+      <c r="Q27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G28">
         <v>2014</v>
       </c>
@@ -17565,8 +17987,23 @@
       <c r="J28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="M28">
+        <v>2014</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28" t="s">
+        <v>400</v>
+      </c>
+      <c r="P28">
+        <v>3</v>
+      </c>
+      <c r="Q28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G29">
         <v>2015</v>
       </c>
@@ -17579,8 +18016,23 @@
       <c r="J29">
         <v>6</v>
       </c>
-    </row>
-    <row r="30" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="M29">
+        <v>2014</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29" t="s">
+        <v>406</v>
+      </c>
+      <c r="P29">
+        <v>1</v>
+      </c>
+      <c r="Q29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G30">
         <v>2015</v>
       </c>
@@ -17593,8 +18045,23 @@
       <c r="J30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="M30">
+        <v>2014</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30" t="s">
+        <v>402</v>
+      </c>
+      <c r="P30">
+        <v>2</v>
+      </c>
+      <c r="Q30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G31">
         <v>2015</v>
       </c>
@@ -17607,8 +18074,23 @@
       <c r="J31">
         <v>6</v>
       </c>
-    </row>
-    <row r="32" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="M31">
+        <v>2014</v>
+      </c>
+      <c r="N31">
+        <v>2</v>
+      </c>
+      <c r="O31" t="s">
+        <v>404</v>
+      </c>
+      <c r="P31">
+        <v>1</v>
+      </c>
+      <c r="Q31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G32">
         <v>2015</v>
       </c>
@@ -17621,8 +18103,23 @@
       <c r="J32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="M32">
+        <v>2015</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32" t="s">
+        <v>399</v>
+      </c>
+      <c r="P32">
+        <v>4</v>
+      </c>
+      <c r="Q32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G33">
         <v>2016</v>
       </c>
@@ -17635,8 +18132,23 @@
       <c r="J33">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="M33">
+        <v>2015</v>
+      </c>
+      <c r="N33">
+        <v>2</v>
+      </c>
+      <c r="O33" t="s">
+        <v>399</v>
+      </c>
+      <c r="P33">
+        <v>1</v>
+      </c>
+      <c r="Q33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G34">
         <v>2016</v>
       </c>
@@ -17649,8 +18161,23 @@
       <c r="J34">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="M34">
+        <v>2015</v>
+      </c>
+      <c r="N34">
+        <v>2</v>
+      </c>
+      <c r="O34" t="s">
+        <v>416</v>
+      </c>
+      <c r="P34">
+        <v>1</v>
+      </c>
+      <c r="Q34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G35">
         <v>2016</v>
       </c>
@@ -17663,8 +18190,23 @@
       <c r="J35">
         <v>13</v>
       </c>
-    </row>
-    <row r="36" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="M35">
+        <v>2015</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35" t="s">
+        <v>406</v>
+      </c>
+      <c r="P35">
+        <v>5</v>
+      </c>
+      <c r="Q35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G36">
         <v>2016</v>
       </c>
@@ -17677,8 +18219,23 @@
       <c r="J36">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="M36">
+        <v>2015</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36" t="s">
+        <v>402</v>
+      </c>
+      <c r="P36">
+        <v>1</v>
+      </c>
+      <c r="Q36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G37">
         <v>2017</v>
       </c>
@@ -17691,8 +18248,23 @@
       <c r="J37">
         <v>12</v>
       </c>
-    </row>
-    <row r="38" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="M37">
+        <v>2016</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37" t="s">
+        <v>399</v>
+      </c>
+      <c r="P37">
+        <v>6</v>
+      </c>
+      <c r="Q37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G38">
         <v>2017</v>
       </c>
@@ -17705,8 +18277,23 @@
       <c r="J38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="M38">
+        <v>2016</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38" t="s">
+        <v>400</v>
+      </c>
+      <c r="P38">
+        <v>3</v>
+      </c>
+      <c r="Q38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G39">
         <v>2017</v>
       </c>
@@ -17719,8 +18306,23 @@
       <c r="J39">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="M39">
+        <v>2016</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39" t="s">
+        <v>406</v>
+      </c>
+      <c r="P39">
+        <v>5</v>
+      </c>
+      <c r="Q39">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G40">
         <v>2017</v>
       </c>
@@ -17733,8 +18335,23 @@
       <c r="J40">
         <v>7</v>
       </c>
-    </row>
-    <row r="41" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="M40">
+        <v>2016</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40" t="s">
+        <v>402</v>
+      </c>
+      <c r="P40">
+        <v>2</v>
+      </c>
+      <c r="Q40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G41">
         <v>2017</v>
       </c>
@@ -17747,8 +18364,23 @@
       <c r="J41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="M41">
+        <v>2016</v>
+      </c>
+      <c r="N41">
+        <v>2</v>
+      </c>
+      <c r="O41" t="s">
+        <v>402</v>
+      </c>
+      <c r="P41">
+        <v>2</v>
+      </c>
+      <c r="Q41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G42">
         <v>2017</v>
       </c>
@@ -17761,8 +18393,23 @@
       <c r="J42">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="M42">
+        <v>2017</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42" t="s">
+        <v>399</v>
+      </c>
+      <c r="P42">
+        <v>6</v>
+      </c>
+      <c r="Q42">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G43">
         <v>2017</v>
       </c>
@@ -17775,8 +18422,23 @@
       <c r="J43">
         <v>2</v>
       </c>
-    </row>
-    <row r="44" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="M43">
+        <v>2017</v>
+      </c>
+      <c r="N43">
+        <v>2</v>
+      </c>
+      <c r="O43" t="s">
+        <v>399</v>
+      </c>
+      <c r="P43">
+        <v>3</v>
+      </c>
+      <c r="Q43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G44">
         <v>2017</v>
       </c>
@@ -17789,8 +18451,23 @@
       <c r="J44">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="M44">
+        <v>2017</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44" t="s">
+        <v>416</v>
+      </c>
+      <c r="P44">
+        <v>3</v>
+      </c>
+      <c r="Q44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G45">
         <v>2018</v>
       </c>
@@ -17803,8 +18480,23 @@
       <c r="J45">
         <v>12</v>
       </c>
-    </row>
-    <row r="46" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="M45">
+        <v>2017</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45" t="s">
+        <v>400</v>
+      </c>
+      <c r="P45">
+        <v>1</v>
+      </c>
+      <c r="Q45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G46">
         <v>2018</v>
       </c>
@@ -17817,8 +18509,23 @@
       <c r="J46">
         <v>2</v>
       </c>
-    </row>
-    <row r="47" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="M46">
+        <v>2017</v>
+      </c>
+      <c r="N46">
+        <v>2</v>
+      </c>
+      <c r="O46" t="s">
+        <v>400</v>
+      </c>
+      <c r="P46">
+        <v>1</v>
+      </c>
+      <c r="Q46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G47">
         <v>2018</v>
       </c>
@@ -17831,8 +18538,23 @@
       <c r="J47">
         <v>15</v>
       </c>
-    </row>
-    <row r="48" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="M47">
+        <v>2017</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47" t="s">
+        <v>406</v>
+      </c>
+      <c r="P47">
+        <v>6</v>
+      </c>
+      <c r="Q47">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G48">
         <v>2018</v>
       </c>
@@ -17845,8 +18567,23 @@
       <c r="J48">
         <v>2</v>
       </c>
-    </row>
-    <row r="49" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="M48">
+        <v>2017</v>
+      </c>
+      <c r="N48">
+        <v>2</v>
+      </c>
+      <c r="O48" t="s">
+        <v>409</v>
+      </c>
+      <c r="P48">
+        <v>2</v>
+      </c>
+      <c r="Q48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G49">
         <v>2019</v>
       </c>
@@ -17859,8 +18596,23 @@
       <c r="J49">
         <v>30</v>
       </c>
-    </row>
-    <row r="50" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="M49">
+        <v>2017</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49" t="s">
+        <v>402</v>
+      </c>
+      <c r="P49">
+        <v>2</v>
+      </c>
+      <c r="Q49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G50">
         <v>2019</v>
       </c>
@@ -17873,8 +18625,23 @@
       <c r="J50">
         <v>3</v>
       </c>
-    </row>
-    <row r="51" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="M50">
+        <v>2017</v>
+      </c>
+      <c r="N50">
+        <v>2</v>
+      </c>
+      <c r="O50" t="s">
+        <v>402</v>
+      </c>
+      <c r="P50">
+        <v>2</v>
+      </c>
+      <c r="Q50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G51">
         <v>2019</v>
       </c>
@@ -17887,8 +18654,23 @@
       <c r="J51">
         <v>3</v>
       </c>
-    </row>
-    <row r="52" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="M51">
+        <v>2017</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51" t="s">
+        <v>405</v>
+      </c>
+      <c r="P51">
+        <v>1</v>
+      </c>
+      <c r="Q51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G52">
         <v>2019</v>
       </c>
@@ -17901,8 +18683,23 @@
       <c r="J52">
         <v>6</v>
       </c>
-    </row>
-    <row r="53" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="M52">
+        <v>2017</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="O52" t="s">
+        <v>404</v>
+      </c>
+      <c r="P52">
+        <v>6</v>
+      </c>
+      <c r="Q52">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G53">
         <v>2019</v>
       </c>
@@ -17915,8 +18712,23 @@
       <c r="J53">
         <v>9</v>
       </c>
-    </row>
-    <row r="54" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="M53">
+        <v>2018</v>
+      </c>
+      <c r="N53">
+        <v>1</v>
+      </c>
+      <c r="O53" t="s">
+        <v>399</v>
+      </c>
+      <c r="P53">
+        <v>9</v>
+      </c>
+      <c r="Q53">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G54">
         <v>2019</v>
       </c>
@@ -17929,8 +18741,23 @@
       <c r="J54">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="M54">
+        <v>2018</v>
+      </c>
+      <c r="N54">
+        <v>2</v>
+      </c>
+      <c r="O54" t="s">
+        <v>399</v>
+      </c>
+      <c r="P54">
+        <v>3</v>
+      </c>
+      <c r="Q54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G55">
         <v>2019</v>
       </c>
@@ -17942,6 +18769,327 @@
       </c>
       <c r="J55">
         <v>7</v>
+      </c>
+      <c r="M55">
+        <v>2018</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55" t="s">
+        <v>416</v>
+      </c>
+      <c r="P55">
+        <v>1</v>
+      </c>
+      <c r="Q55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="M56">
+        <v>2018</v>
+      </c>
+      <c r="N56">
+        <v>2</v>
+      </c>
+      <c r="O56" t="s">
+        <v>416</v>
+      </c>
+      <c r="P56">
+        <v>1</v>
+      </c>
+      <c r="Q56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="M57">
+        <v>2018</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57" t="s">
+        <v>406</v>
+      </c>
+      <c r="P57">
+        <v>6</v>
+      </c>
+      <c r="Q57">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="M58">
+        <v>2018</v>
+      </c>
+      <c r="N58">
+        <v>2</v>
+      </c>
+      <c r="O58" t="s">
+        <v>406</v>
+      </c>
+      <c r="P58">
+        <v>3</v>
+      </c>
+      <c r="Q58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="M59">
+        <v>2018</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="O59" t="s">
+        <v>405</v>
+      </c>
+      <c r="P59">
+        <v>2</v>
+      </c>
+      <c r="Q59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="M60">
+        <v>2019</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="O60" t="s">
+        <v>399</v>
+      </c>
+      <c r="P60">
+        <v>21</v>
+      </c>
+      <c r="Q60">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="M61">
+        <v>2019</v>
+      </c>
+      <c r="N61">
+        <v>2</v>
+      </c>
+      <c r="O61" t="s">
+        <v>399</v>
+      </c>
+      <c r="P61">
+        <v>17</v>
+      </c>
+      <c r="Q61">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="M62">
+        <v>2019</v>
+      </c>
+      <c r="N62">
+        <v>1</v>
+      </c>
+      <c r="O62" t="s">
+        <v>416</v>
+      </c>
+      <c r="P62">
+        <v>1</v>
+      </c>
+      <c r="Q62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="M63">
+        <v>2019</v>
+      </c>
+      <c r="N63">
+        <v>2</v>
+      </c>
+      <c r="O63" t="s">
+        <v>416</v>
+      </c>
+      <c r="P63">
+        <v>1</v>
+      </c>
+      <c r="Q63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="M64">
+        <v>2019</v>
+      </c>
+      <c r="N64">
+        <v>1</v>
+      </c>
+      <c r="O64" t="s">
+        <v>400</v>
+      </c>
+      <c r="P64">
+        <v>3</v>
+      </c>
+      <c r="Q64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M65">
+        <v>2019</v>
+      </c>
+      <c r="N65">
+        <v>2</v>
+      </c>
+      <c r="O65" t="s">
+        <v>400</v>
+      </c>
+      <c r="P65">
+        <v>1</v>
+      </c>
+      <c r="Q65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M66">
+        <v>2019</v>
+      </c>
+      <c r="N66">
+        <v>1</v>
+      </c>
+      <c r="O66" t="s">
+        <v>406</v>
+      </c>
+      <c r="P66">
+        <v>5</v>
+      </c>
+      <c r="Q66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M67">
+        <v>2019</v>
+      </c>
+      <c r="N67">
+        <v>2</v>
+      </c>
+      <c r="O67" t="s">
+        <v>406</v>
+      </c>
+      <c r="P67">
+        <v>1</v>
+      </c>
+      <c r="Q67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M68">
+        <v>2019</v>
+      </c>
+      <c r="N68">
+        <v>1</v>
+      </c>
+      <c r="O68" t="s">
+        <v>402</v>
+      </c>
+      <c r="P68">
+        <v>6</v>
+      </c>
+      <c r="Q68">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M69">
+        <v>2019</v>
+      </c>
+      <c r="N69">
+        <v>2</v>
+      </c>
+      <c r="O69" t="s">
+        <v>402</v>
+      </c>
+      <c r="P69">
+        <v>5</v>
+      </c>
+      <c r="Q69">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M70">
+        <v>2019</v>
+      </c>
+      <c r="N70">
+        <v>1</v>
+      </c>
+      <c r="O70" t="s">
+        <v>405</v>
+      </c>
+      <c r="P70">
+        <v>2</v>
+      </c>
+      <c r="Q70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M71">
+        <v>2019</v>
+      </c>
+      <c r="N71">
+        <v>2</v>
+      </c>
+      <c r="O71" t="s">
+        <v>405</v>
+      </c>
+      <c r="P71">
+        <v>4</v>
+      </c>
+      <c r="Q71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M72">
+        <v>2019</v>
+      </c>
+      <c r="N72">
+        <v>1</v>
+      </c>
+      <c r="O72" t="s">
+        <v>404</v>
+      </c>
+      <c r="P72">
+        <v>7</v>
+      </c>
+      <c r="Q72">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M73">
+        <v>2019</v>
+      </c>
+      <c r="N73">
+        <v>2</v>
+      </c>
+      <c r="O73" t="s">
+        <v>404</v>
+      </c>
+      <c r="P73">
+        <v>2</v>
+      </c>
+      <c r="Q73">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -20204,8 +21352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20249,10 +21397,10 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="H2">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="I2">
         <v>10847</v>
@@ -20265,7 +21413,7 @@
       </c>
       <c r="L2">
         <f>G2/(G2+H2)</f>
-        <v>0.49707602339181284</v>
+        <v>0.48275862068965519</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
@@ -20282,10 +21430,10 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H3">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I3">
         <v>10863</v>
@@ -20298,7 +21446,7 @@
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L9" si="0">G3/(G3+H3)</f>
-        <v>0.47619047619047616</v>
+        <v>0.46153846153846156</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
@@ -20315,10 +21463,10 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="H4">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="I4">
         <v>10865</v>
@@ -20331,7 +21479,7 @@
       </c>
       <c r="L4">
         <f t="shared" si="0"/>
-        <v>0.57692307692307687</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
@@ -20348,10 +21496,10 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="H5">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="I5">
         <v>10872</v>
@@ -20364,7 +21512,7 @@
       </c>
       <c r="L5">
         <f t="shared" si="0"/>
-        <v>0.63157894736842102</v>
+        <v>0.671875</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
@@ -20381,10 +21529,10 @@
         <v>2</v>
       </c>
       <c r="G6">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="H6">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I6">
         <v>10892</v>
@@ -20397,7 +21545,7 @@
       </c>
       <c r="L6">
         <f t="shared" si="0"/>
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
@@ -20414,10 +21562,10 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H7">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="I7">
         <v>10981</v>
@@ -20430,7 +21578,7 @@
       </c>
       <c r="L7">
         <f t="shared" si="0"/>
-        <v>0.47727272727272729</v>
+        <v>0.48148148148148145</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
@@ -20447,10 +21595,10 @@
         <v>3</v>
       </c>
       <c r="G8">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H8">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I8">
         <v>10990</v>
@@ -20463,7 +21611,7 @@
       </c>
       <c r="L8">
         <f t="shared" si="0"/>
-        <v>0.65</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
@@ -20480,10 +21628,10 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="H9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I9">
         <v>10997</v>
@@ -20787,10 +21935,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E97"/>
+  <dimension ref="B2:E72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E10"/>
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20812,7 +21960,7 @@
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3">
-        <v>0.502413678060596</v>
+        <v>0.54847414635362202</v>
       </c>
       <c r="C3">
         <v>10847</v>
@@ -20826,7 +21974,7 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4">
-        <v>0.47469136036104598</v>
+        <v>0.41833333671092998</v>
       </c>
       <c r="C4">
         <v>10863</v>
@@ -20840,7 +21988,7 @@
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5">
-        <v>0.4639279730618</v>
+        <v>0.440476194024086</v>
       </c>
       <c r="C5">
         <v>10865</v>
@@ -20854,7 +22002,7 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6">
-        <v>0.57643849651018797</v>
+        <v>0.584848489002748</v>
       </c>
       <c r="C6">
         <v>10872</v>
@@ -20868,7 +22016,7 @@
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7">
-        <v>0.72988505969787498</v>
+        <v>0.66666667163371995</v>
       </c>
       <c r="C7">
         <v>10892</v>
@@ -20882,7 +22030,7 @@
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8">
-        <v>0.493318322341184</v>
+        <v>0.46243961641322001</v>
       </c>
       <c r="C8">
         <v>10981</v>
@@ -20896,7 +22044,7 @@
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9">
-        <v>0.39259259733888802</v>
+        <v>0.36363636905496799</v>
       </c>
       <c r="C9">
         <v>10990</v>
@@ -20910,7 +22058,7 @@
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10">
-        <v>0.70833333688122901</v>
+        <v>0.70833333581685998</v>
       </c>
       <c r="C10">
         <v>10997</v>
@@ -20926,58 +22074,67 @@
       <c r="B18" t="s">
         <v>428</v>
       </c>
+      <c r="C18" t="s">
+        <v>419</v>
+      </c>
+      <c r="D18" t="s">
+        <v>395</v>
+      </c>
+      <c r="E18" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19">
-        <v>0.61111111442248001</v>
+        <v>0.5</v>
       </c>
       <c r="C19">
-        <v>10847</v>
+        <v>10865</v>
       </c>
       <c r="D19">
         <v>2008</v>
       </c>
       <c r="E19" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20">
-        <v>0.29632034791367401</v>
+        <v>0.70000000298023202</v>
       </c>
       <c r="C20">
-        <v>10865</v>
+        <v>10847</v>
       </c>
       <c r="D20">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="E20" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21">
-        <v>0.5</v>
+        <v>0.33333334326744102</v>
       </c>
       <c r="C21">
-        <v>10872</v>
+        <v>10981</v>
       </c>
       <c r="D21">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="E21" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22">
-        <v>0.58717201397355101</v>
+        <v>0.44444444775581399</v>
       </c>
       <c r="C22">
         <v>10847</v>
       </c>
       <c r="D22">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="E22" t="s">
         <v>399</v>
@@ -20985,58 +22142,58 @@
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23">
-        <v>0.246666672825813</v>
+        <v>0.5</v>
       </c>
       <c r="C23">
-        <v>10865</v>
+        <v>10892</v>
       </c>
       <c r="D23">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="E23" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24">
-        <v>0.66666666666666696</v>
+        <v>0.33333334326744102</v>
       </c>
       <c r="C24">
-        <v>10872</v>
+        <v>10981</v>
       </c>
       <c r="D24">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="E24" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25">
-        <v>0.66666667163371995</v>
+        <v>0.5</v>
       </c>
       <c r="C25">
-        <v>10892</v>
+        <v>10990</v>
       </c>
       <c r="D25">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="E25" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26">
-        <v>0.33333334326744102</v>
+        <v>0.339999999850988</v>
       </c>
       <c r="C26">
-        <v>10981</v>
+        <v>10847</v>
       </c>
       <c r="D26">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="E26" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
@@ -21044,94 +22201,94 @@
         <v>0.5</v>
       </c>
       <c r="C27">
-        <v>10990</v>
+        <v>10865</v>
       </c>
       <c r="D27">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="E27" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28">
-        <v>0.43333333730697599</v>
+        <v>0.37500000745058099</v>
       </c>
       <c r="C28">
-        <v>10847</v>
+        <v>10872</v>
       </c>
       <c r="D28">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="E28" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="C29">
-        <v>10863</v>
+        <v>10892</v>
       </c>
       <c r="D29">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="E29" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30">
-        <v>0.35000000149011601</v>
+        <v>0.5</v>
       </c>
       <c r="C30">
-        <v>10865</v>
+        <v>10990</v>
       </c>
       <c r="D30">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="E30" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31">
-        <v>0.33333334326744102</v>
+        <v>0.5</v>
       </c>
       <c r="C31">
-        <v>10872</v>
+        <v>10847</v>
       </c>
       <c r="D31">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="E31" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32">
-        <v>0.8125</v>
+        <v>0.33333334326744102</v>
       </c>
       <c r="C32">
-        <v>10892</v>
+        <v>10872</v>
       </c>
       <c r="D32">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="E32" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33">
-        <v>0.41666667163372001</v>
+        <v>0.111111111938953</v>
       </c>
       <c r="C33">
         <v>10981</v>
       </c>
       <c r="D33">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="E33" t="s">
         <v>402</v>
@@ -21139,293 +22296,293 @@
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34">
-        <v>0.5</v>
+        <v>0.55952381236212601</v>
       </c>
       <c r="C34">
-        <v>10990</v>
+        <v>10847</v>
       </c>
       <c r="D34">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="E34" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35">
-        <v>0.339999999850988</v>
+        <v>0.25</v>
       </c>
       <c r="C35">
-        <v>10847</v>
+        <v>10863</v>
       </c>
       <c r="D35">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="E35" t="s">
-        <v>399</v>
+        <v>416</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36">
-        <v>0.54166666790842999</v>
+        <v>0.33333334326744102</v>
       </c>
       <c r="C36">
-        <v>10863</v>
+        <v>10865</v>
       </c>
       <c r="D36">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="E36" t="s">
-        <v>416</v>
+        <v>400</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37">
-        <v>0.533333333830039</v>
+        <v>0.33333334326744102</v>
       </c>
       <c r="C37">
-        <v>10865</v>
+        <v>10872</v>
       </c>
       <c r="D37">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="E37" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38">
-        <v>0.38095238591943498</v>
+        <v>0.5</v>
       </c>
       <c r="C38">
-        <v>10872</v>
+        <v>10981</v>
       </c>
       <c r="D38">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="E38" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39">
-        <v>0.78787878968498903</v>
+        <v>0.33333334326744102</v>
       </c>
       <c r="C39">
-        <v>10892</v>
+        <v>10990</v>
       </c>
       <c r="D39">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="E39" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="C40">
-        <v>10981</v>
+        <v>10847</v>
       </c>
       <c r="D40">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="E40" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41">
-        <v>0.5</v>
+        <v>0.45000000298023202</v>
       </c>
       <c r="C41">
-        <v>10990</v>
+        <v>10863</v>
       </c>
       <c r="D41">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="E41" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42">
-        <v>0.56018518532315897</v>
+        <v>0.75</v>
       </c>
       <c r="C42">
-        <v>10847</v>
+        <v>10865</v>
       </c>
       <c r="D42">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="E42" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43">
-        <v>0.53125000372528997</v>
+        <v>0.33333334326744102</v>
       </c>
       <c r="C43">
-        <v>10865</v>
+        <v>10872</v>
       </c>
       <c r="D43">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="E43" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44">
-        <v>0.29166667163372001</v>
+        <v>0.41666667163372001</v>
       </c>
       <c r="C44">
-        <v>10872</v>
+        <v>10981</v>
       </c>
       <c r="D44">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="E44" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B45">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C45">
-        <v>10892</v>
+        <v>10997</v>
       </c>
       <c r="D45">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="E45" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B46">
-        <v>0.30555555596947698</v>
+        <v>0.61111111442248001</v>
       </c>
       <c r="C46">
-        <v>10981</v>
+        <v>10847</v>
       </c>
       <c r="D46">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="E46" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B47">
-        <v>0.54791666865348798</v>
+        <v>0.5</v>
       </c>
       <c r="C47">
-        <v>10847</v>
+        <v>10863</v>
       </c>
       <c r="D47">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="E47" t="s">
-        <v>399</v>
+        <v>416</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B48">
-        <v>0.28703703731298402</v>
+        <v>0.75000000496705399</v>
       </c>
       <c r="C48">
-        <v>10863</v>
+        <v>10872</v>
       </c>
       <c r="D48">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="E48" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B49">
-        <v>0.58333333581685998</v>
+        <v>0.33333334326744102</v>
       </c>
       <c r="C49">
-        <v>10865</v>
+        <v>10981</v>
       </c>
       <c r="D49">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="E49" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B50">
-        <v>0.38888889551162698</v>
+        <v>0.82222223281860396</v>
       </c>
       <c r="C50">
-        <v>10872</v>
+        <v>10847</v>
       </c>
       <c r="D50">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="E50" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B51">
-        <v>0.5</v>
+        <v>0.36111111442248001</v>
       </c>
       <c r="C51">
-        <v>10981</v>
+        <v>10865</v>
       </c>
       <c r="D51">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="E51" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B52">
-        <v>0.33333334326744102</v>
+        <v>0.76923077152325603</v>
       </c>
       <c r="C52">
-        <v>10990</v>
+        <v>10872</v>
       </c>
       <c r="D52">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="E52" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B53">
-        <v>0.66666667163371995</v>
+        <v>0.48958333581685998</v>
       </c>
       <c r="C53">
-        <v>10997</v>
+        <v>10981</v>
       </c>
       <c r="D53">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="E53" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B54">
-        <v>0.38194444672101102</v>
+        <v>0.41527778406937899</v>
       </c>
       <c r="C54">
         <v>10847</v>
       </c>
       <c r="D54">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="E54" t="s">
         <v>399</v>
@@ -21433,13 +22590,13 @@
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B55">
-        <v>0.45000000298023202</v>
+        <v>0.75</v>
       </c>
       <c r="C55">
         <v>10863</v>
       </c>
       <c r="D55">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="E55" t="s">
         <v>416</v>
@@ -21447,13 +22604,13 @@
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B56">
-        <v>0.61666666865348796</v>
+        <v>0.41666667163372001</v>
       </c>
       <c r="C56">
         <v>10865</v>
       </c>
       <c r="D56">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="E56" t="s">
         <v>400</v>
@@ -21461,13 +22618,13 @@
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B57">
-        <v>0.54166667163371995</v>
+        <v>0.73809524093355505</v>
       </c>
       <c r="C57">
         <v>10872</v>
       </c>
       <c r="D57">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="E57" t="s">
         <v>406</v>
@@ -21475,97 +22632,97 @@
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B58">
-        <v>0.41666667163372001</v>
+        <v>0.66666668653488204</v>
       </c>
       <c r="C58">
-        <v>10981</v>
+        <v>10892</v>
       </c>
       <c r="D58">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="E58" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B59">
-        <v>0.5</v>
+        <v>0.41666666666666702</v>
       </c>
       <c r="C59">
-        <v>10990</v>
+        <v>10981</v>
       </c>
       <c r="D59">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="E59" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B60">
-        <v>0.50000000993410698</v>
+        <v>0.5</v>
       </c>
       <c r="C60">
-        <v>10997</v>
+        <v>10990</v>
       </c>
       <c r="D60">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="E60" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B61">
-        <v>0.69629630115297103</v>
+        <v>0.78125</v>
       </c>
       <c r="C61">
-        <v>10847</v>
+        <v>10997</v>
       </c>
       <c r="D61">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="E61" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B62">
-        <v>0.5</v>
+        <v>0.50972222660978606</v>
       </c>
       <c r="C62">
-        <v>10863</v>
+        <v>10847</v>
       </c>
       <c r="D62">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="E62" t="s">
-        <v>416</v>
+        <v>399</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B63">
-        <v>0.247142860293388</v>
+        <v>0.58333334326744102</v>
       </c>
       <c r="C63">
-        <v>10865</v>
+        <v>10863</v>
       </c>
       <c r="D63">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="E63" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B64">
-        <v>0.67976191001278996</v>
+        <v>0.49222222665945697</v>
       </c>
       <c r="C64">
         <v>10872</v>
       </c>
       <c r="D64">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="E64" t="s">
         <v>406</v>
@@ -21573,27 +22730,27 @@
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B65">
-        <v>0.50000001490116097</v>
+        <v>0.25000000745058099</v>
       </c>
       <c r="C65">
-        <v>10981</v>
+        <v>10990</v>
       </c>
       <c r="D65">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="E65" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B66">
-        <v>0.66000000834465</v>
+        <v>0.57515873461961697</v>
       </c>
       <c r="C66">
         <v>10847</v>
       </c>
       <c r="D66">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="E66" t="s">
         <v>399</v>
@@ -21601,55 +22758,55 @@
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B67">
-        <v>0.46666666865348799</v>
+        <v>0.20555555820465099</v>
       </c>
       <c r="C67">
-        <v>10865</v>
+        <v>10863</v>
       </c>
       <c r="D67">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="E67" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B68">
-        <v>0.75000000175307802</v>
+        <v>0.32539683083693199</v>
       </c>
       <c r="C68">
-        <v>10872</v>
+        <v>10865</v>
       </c>
       <c r="D68">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="E68" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B69">
-        <v>0.33333334326744102</v>
+        <v>0.38055555770794602</v>
       </c>
       <c r="C69">
-        <v>10892</v>
+        <v>10872</v>
       </c>
       <c r="D69">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="E69" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B70">
-        <v>0.45729167200624898</v>
+        <v>0.55370370546976699</v>
       </c>
       <c r="C70">
         <v>10981</v>
       </c>
       <c r="D70">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="E70" t="s">
         <v>402</v>
@@ -21657,13 +22814,13 @@
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B71">
-        <v>0.20000000298023199</v>
+        <v>0.29166667535901097</v>
       </c>
       <c r="C71">
         <v>10990</v>
       </c>
       <c r="D71">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="E71" t="s">
         <v>405</v>
@@ -21671,365 +22828,15 @@
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B72">
-        <v>0.40000000674473601</v>
+        <v>0.65476191043853804</v>
       </c>
       <c r="C72">
-        <v>10847</v>
+        <v>10997</v>
       </c>
       <c r="D72">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="E72" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B73">
-        <v>0.63888889054457298</v>
-      </c>
-      <c r="C73">
-        <v>10863</v>
-      </c>
-      <c r="D73">
-        <v>2017</v>
-      </c>
-      <c r="E73" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B74">
-        <v>0.39333334267139403</v>
-      </c>
-      <c r="C74">
-        <v>10865</v>
-      </c>
-      <c r="D74">
-        <v>2017</v>
-      </c>
-      <c r="E74" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B75">
-        <v>0.71666666865348805</v>
-      </c>
-      <c r="C75">
-        <v>10872</v>
-      </c>
-      <c r="D75">
-        <v>2017</v>
-      </c>
-      <c r="E75" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B76">
-        <v>0.66666668653488204</v>
-      </c>
-      <c r="C76">
-        <v>10892</v>
-      </c>
-      <c r="D76">
-        <v>2017</v>
-      </c>
-      <c r="E76" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B77">
-        <v>0.383333337306976</v>
-      </c>
-      <c r="C77">
-        <v>10981</v>
-      </c>
-      <c r="D77">
-        <v>2017</v>
-      </c>
-      <c r="E77" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B78">
-        <v>0.46666667237877801</v>
-      </c>
-      <c r="C78">
-        <v>10990</v>
-      </c>
-      <c r="D78">
-        <v>2017</v>
-      </c>
-      <c r="E78" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B79">
-        <v>0.72222222222222199</v>
-      </c>
-      <c r="C79">
-        <v>10997</v>
-      </c>
-      <c r="D79">
-        <v>2017</v>
-      </c>
-      <c r="E79" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B80">
-        <v>0.45789474170458899</v>
-      </c>
-      <c r="C80">
-        <v>10847</v>
-      </c>
-      <c r="D80">
-        <v>2018</v>
-      </c>
-      <c r="E80" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B81">
-        <v>0.72222222884496101</v>
-      </c>
-      <c r="C81">
-        <v>10863</v>
-      </c>
-      <c r="D81">
-        <v>2018</v>
-      </c>
-      <c r="E81" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B82">
-        <v>0.6</v>
-      </c>
-      <c r="C82">
-        <v>10865</v>
-      </c>
-      <c r="D82">
-        <v>2018</v>
-      </c>
-      <c r="E82" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B83">
-        <v>0.51498600051683496</v>
-      </c>
-      <c r="C83">
-        <v>10872</v>
-      </c>
-      <c r="D83">
-        <v>2018</v>
-      </c>
-      <c r="E83" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B84">
-        <v>0.16666667163372001</v>
-      </c>
-      <c r="C84">
-        <v>10892</v>
-      </c>
-      <c r="D84">
-        <v>2018</v>
-      </c>
-      <c r="E84" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B85">
-        <v>0.29166667163372001</v>
-      </c>
-      <c r="C85">
-        <v>10981</v>
-      </c>
-      <c r="D85">
-        <v>2018</v>
-      </c>
-      <c r="E85" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B86">
-        <v>0.33333333830038703</v>
-      </c>
-      <c r="C86">
-        <v>10990</v>
-      </c>
-      <c r="D86">
-        <v>2018</v>
-      </c>
-      <c r="E86" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B87">
-        <v>1</v>
-      </c>
-      <c r="C87">
-        <v>10997</v>
-      </c>
-      <c r="D87">
-        <v>2018</v>
-      </c>
-      <c r="E87" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B88">
-        <v>0.49911230057478001</v>
-      </c>
-      <c r="C88">
-        <v>10847</v>
-      </c>
-      <c r="D88">
-        <v>2019</v>
-      </c>
-      <c r="E88" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B89">
-        <v>0.20555555820465099</v>
-      </c>
-      <c r="C89">
-        <v>10863</v>
-      </c>
-      <c r="D89">
-        <v>2019</v>
-      </c>
-      <c r="E89" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B90">
-        <v>0.46402116616567002</v>
-      </c>
-      <c r="C90">
-        <v>10865</v>
-      </c>
-      <c r="D90">
-        <v>2019</v>
-      </c>
-      <c r="E90" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B91">
-        <v>0.39242424477230398</v>
-      </c>
-      <c r="C91">
-        <v>10872</v>
-      </c>
-      <c r="D91">
-        <v>2019</v>
-      </c>
-      <c r="E91" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B92">
-        <v>0.5</v>
-      </c>
-      <c r="C92">
-        <v>10892</v>
-      </c>
-      <c r="D92">
-        <v>2019</v>
-      </c>
-      <c r="E92" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B93">
-        <v>0.63484848629344603</v>
-      </c>
-      <c r="C93">
-        <v>10981</v>
-      </c>
-      <c r="D93">
-        <v>2019</v>
-      </c>
-      <c r="E93" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B94">
-        <v>0.29166667535901097</v>
-      </c>
-      <c r="C94">
-        <v>10990</v>
-      </c>
-      <c r="D94">
-        <v>2019</v>
-      </c>
-      <c r="E94" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B95">
-        <v>0.75000000496705399</v>
-      </c>
-      <c r="C95">
-        <v>10997</v>
-      </c>
-      <c r="D95">
-        <v>2019</v>
-      </c>
-      <c r="E95" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B96">
-        <v>0.66666668653488204</v>
-      </c>
-      <c r="C96">
-        <v>10872</v>
-      </c>
-      <c r="D96">
-        <v>2020</v>
-      </c>
-      <c r="E96" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B97">
-        <v>0.5</v>
-      </c>
-      <c r="C97">
-        <v>10997</v>
-      </c>
-      <c r="D97">
-        <v>2020</v>
-      </c>
-      <c r="E97" t="s">
         <v>404</v>
       </c>
     </row>
@@ -22037,4 +22844,496 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="49.5703125" customWidth="1"/>
+    <col min="10" max="10" width="51.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>432</v>
+      </c>
+      <c r="C2" t="s">
+        <v>433</v>
+      </c>
+      <c r="D2" t="s">
+        <v>394</v>
+      </c>
+      <c r="E2" t="s">
+        <v>434</v>
+      </c>
+      <c r="I2" t="s">
+        <v>432</v>
+      </c>
+      <c r="J2" t="s">
+        <v>433</v>
+      </c>
+      <c r="K2" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>10847</v>
+      </c>
+      <c r="C3" t="s">
+        <v>399</v>
+      </c>
+      <c r="D3">
+        <v>66</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>10847</v>
+      </c>
+      <c r="J3" t="s">
+        <v>399</v>
+      </c>
+      <c r="K3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>10847</v>
+      </c>
+      <c r="C4" t="s">
+        <v>399</v>
+      </c>
+      <c r="D4">
+        <v>14</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>10863</v>
+      </c>
+      <c r="J4" t="s">
+        <v>416</v>
+      </c>
+      <c r="K4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>10847</v>
+      </c>
+      <c r="C5" t="s">
+        <v>399</v>
+      </c>
+      <c r="D5">
+        <v>12</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>10865</v>
+      </c>
+      <c r="J5" t="s">
+        <v>400</v>
+      </c>
+      <c r="K5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>10847</v>
+      </c>
+      <c r="C6" t="s">
+        <v>399</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="I6">
+        <v>10872</v>
+      </c>
+      <c r="J6" t="s">
+        <v>406</v>
+      </c>
+      <c r="K6">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>10863</v>
+      </c>
+      <c r="C7" t="s">
+        <v>416</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>10892</v>
+      </c>
+      <c r="J7" t="s">
+        <v>409</v>
+      </c>
+      <c r="K7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>10863</v>
+      </c>
+      <c r="C8" t="s">
+        <v>416</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>10981</v>
+      </c>
+      <c r="J8" t="s">
+        <v>402</v>
+      </c>
+      <c r="K8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>10863</v>
+      </c>
+      <c r="C9" t="s">
+        <v>416</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="I9">
+        <v>10990</v>
+      </c>
+      <c r="J9" t="s">
+        <v>405</v>
+      </c>
+      <c r="K9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>10865</v>
+      </c>
+      <c r="C10" t="s">
+        <v>400</v>
+      </c>
+      <c r="D10">
+        <v>12</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>10997</v>
+      </c>
+      <c r="J10" t="s">
+        <v>404</v>
+      </c>
+      <c r="K10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>10865</v>
+      </c>
+      <c r="C11" t="s">
+        <v>400</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>10872</v>
+      </c>
+      <c r="C12" t="s">
+        <v>406</v>
+      </c>
+      <c r="D12">
+        <v>30</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>10872</v>
+      </c>
+      <c r="C13" t="s">
+        <v>406</v>
+      </c>
+      <c r="D13">
+        <v>11</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>10872</v>
+      </c>
+      <c r="C14" t="s">
+        <v>406</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>10872</v>
+      </c>
+      <c r="C15" t="s">
+        <v>406</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>10872</v>
+      </c>
+      <c r="C16" t="s">
+        <v>406</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>10872</v>
+      </c>
+      <c r="C17" t="s">
+        <v>406</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>10892</v>
+      </c>
+      <c r="C18" t="s">
+        <v>409</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>10981</v>
+      </c>
+      <c r="C19" t="s">
+        <v>402</v>
+      </c>
+      <c r="D19">
+        <v>17</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>10981</v>
+      </c>
+      <c r="C20" t="s">
+        <v>402</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>10981</v>
+      </c>
+      <c r="C21" t="s">
+        <v>402</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>10981</v>
+      </c>
+      <c r="C22" t="s">
+        <v>402</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>10981</v>
+      </c>
+      <c r="C23" t="s">
+        <v>402</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>10990</v>
+      </c>
+      <c r="C24" t="s">
+        <v>405</v>
+      </c>
+      <c r="D24">
+        <v>8</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>10990</v>
+      </c>
+      <c r="C25" t="s">
+        <v>405</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>10990</v>
+      </c>
+      <c r="C26" t="s">
+        <v>405</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>10997</v>
+      </c>
+      <c r="C27" t="s">
+        <v>404</v>
+      </c>
+      <c r="D27">
+        <v>14</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>10997</v>
+      </c>
+      <c r="C28" t="s">
+        <v>404</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>10997</v>
+      </c>
+      <c r="C29" t="s">
+        <v>404</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>